--- a/DGP4.xlsx
+++ b/DGP4.xlsx
@@ -419,10 +419,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.908</v>
+        <v>0.9065</v>
       </c>
       <c r="G2" t="n">
-        <v>0.924</v>
+        <v>0.9245</v>
       </c>
     </row>
     <row r="3">
@@ -442,10 +442,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.901</v>
+        <v>0.906</v>
       </c>
       <c r="G3" t="n">
-        <v>0.921</v>
+        <v>0.926</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +465,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.896</v>
+        <v>0.893</v>
       </c>
       <c r="G4" t="n">
-        <v>0.918</v>
+        <v>0.9165</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.891</v>
+        <v>0.8975</v>
       </c>
       <c r="G5" t="n">
-        <v>0.912</v>
+        <v>0.9205</v>
       </c>
     </row>
     <row r="6">
@@ -511,10 +511,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.901</v>
+        <v>0.903</v>
       </c>
       <c r="G6" t="n">
-        <v>0.928</v>
+        <v>0.924</v>
       </c>
     </row>
     <row r="7">
@@ -534,10 +534,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>0.903</v>
+        <v>0.9015</v>
       </c>
       <c r="G7" t="n">
-        <v>0.919</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="8">
@@ -557,10 +557,10 @@
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.891</v>
+        <v>0.8965</v>
       </c>
       <c r="G8" t="n">
-        <v>0.919</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="9">
@@ -583,7 +583,7 @@
         <v>0.887</v>
       </c>
       <c r="G9" t="n">
-        <v>0.919</v>
+        <v>0.9175</v>
       </c>
     </row>
     <row r="10">
@@ -603,10 +603,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>0.89</v>
+        <v>0.9035</v>
       </c>
       <c r="G10" t="n">
-        <v>0.923</v>
+        <v>0.9235</v>
       </c>
     </row>
     <row r="11">
@@ -626,10 +626,10 @@
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>0.884</v>
+        <v>0.8975</v>
       </c>
       <c r="G11" t="n">
-        <v>0.916</v>
+        <v>0.9205</v>
       </c>
     </row>
     <row r="12">
@@ -649,10 +649,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>27.3330003521931</v>
+        <v>26.5616616681855</v>
       </c>
       <c r="G12" t="n">
-        <v>26.643309774954</v>
+        <v>26.0200271252441</v>
       </c>
     </row>
     <row r="13">
@@ -672,10 +672,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>27.5437386497779</v>
+        <v>27.0517904963064</v>
       </c>
       <c r="G13" t="n">
-        <v>27.2739957462687</v>
+        <v>26.5678969941838</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>27.902662285389</v>
+        <v>27.2323322945272</v>
       </c>
       <c r="G14" t="n">
-        <v>27.2400079926116</v>
+        <v>26.5511427453972</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>27.984083164091</v>
+        <v>27.4361590363419</v>
       </c>
       <c r="G15" t="n">
-        <v>27.7922695736582</v>
+        <v>27.0651919529188</v>
       </c>
     </row>
     <row r="16">
@@ -741,10 +741,10 @@
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>28.0335384986562</v>
+        <v>27.3089423621558</v>
       </c>
       <c r="G16" t="n">
-        <v>27.7539189503092</v>
+        <v>27.1927840964</v>
       </c>
     </row>
     <row r="17">
@@ -764,10 +764,10 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>27.9292576017284</v>
+        <v>27.3106355135966</v>
       </c>
       <c r="G17" t="n">
-        <v>27.6480135920226</v>
+        <v>27.0055080054631</v>
       </c>
     </row>
     <row r="18">
@@ -787,10 +787,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>28.3958815354899</v>
+        <v>27.6024531317402</v>
       </c>
       <c r="G18" t="n">
-        <v>27.8882870326135</v>
+        <v>27.1691449604734</v>
       </c>
     </row>
     <row r="19">
@@ -810,10 +810,10 @@
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>27.9034795375971</v>
+        <v>27.2655031182266</v>
       </c>
       <c r="G19" t="n">
-        <v>27.5912242906377</v>
+        <v>27.0283159205524</v>
       </c>
     </row>
     <row r="20">
@@ -833,10 +833,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>28.4423680578583</v>
+        <v>27.4258940357623</v>
       </c>
       <c r="G20" t="n">
-        <v>27.9618843608777</v>
+        <v>27.2848268801218</v>
       </c>
     </row>
     <row r="21">
@@ -856,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>28.2148665960495</v>
+        <v>27.6080679623221</v>
       </c>
       <c r="G21" t="n">
-        <v>27.9285525464429</v>
+        <v>27.2862599174287</v>
       </c>
     </row>
     <row r="22">
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>51.3049574999173</v>
+        <v>47.4627654302479</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2077004515744</v>
+        <v>31.3915068218832</v>
       </c>
     </row>
     <row r="23">
@@ -902,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>55.4480306158322</v>
+        <v>51.4396958115909</v>
       </c>
       <c r="G23" t="n">
-        <v>38.1250247244587</v>
+        <v>34.0425014698189</v>
       </c>
     </row>
     <row r="24">
@@ -925,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>59.7884890586626</v>
+        <v>55.3648926567349</v>
       </c>
       <c r="G24" t="n">
-        <v>40.6881007683915</v>
+        <v>36.353888733763</v>
       </c>
     </row>
     <row r="25">
@@ -948,10 +948,10 @@
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>56.197438122791</v>
+        <v>54.0672236007559</v>
       </c>
       <c r="G25" t="n">
-        <v>39.7102506304822</v>
+        <v>36.1706698202455</v>
       </c>
     </row>
     <row r="26">
@@ -971,10 +971,10 @@
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>56.2821686432639</v>
+        <v>55.7747953385346</v>
       </c>
       <c r="G26" t="n">
-        <v>40.1103566560985</v>
+        <v>37.9815356091856</v>
       </c>
     </row>
     <row r="27">
@@ -994,10 +994,10 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>59.2102030354084</v>
+        <v>57.7059899669205</v>
       </c>
       <c r="G27" t="n">
-        <v>40.9302649417576</v>
+        <v>38.2113927777017</v>
       </c>
     </row>
     <row r="28">
@@ -1017,10 +1017,10 @@
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>62.3185217138054</v>
+        <v>56.9087281871449</v>
       </c>
       <c r="G28" t="n">
-        <v>43.2135856467825</v>
+        <v>38.7957954169864</v>
       </c>
     </row>
     <row r="29">
@@ -1040,10 +1040,10 @@
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>68.5649841715201</v>
+        <v>60.961602159762</v>
       </c>
       <c r="G29" t="n">
-        <v>47.4342395025274</v>
+        <v>41.4258375532624</v>
       </c>
     </row>
     <row r="30">
@@ -1063,10 +1063,10 @@
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>66.15917312064</v>
+        <v>58.2103599991762</v>
       </c>
       <c r="G30" t="n">
-        <v>45.904826462922</v>
+        <v>40.2359338471385</v>
       </c>
     </row>
     <row r="31">
@@ -1086,10 +1086,10 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>66.1078176464795</v>
+        <v>59.6615123527862</v>
       </c>
       <c r="G31" t="n">
-        <v>47.4231463804645</v>
+        <v>40.963213661489</v>
       </c>
     </row>
     <row r="32">
@@ -1109,10 +1109,10 @@
         <v>11</v>
       </c>
       <c r="F32" t="n">
-        <v>4.41607928661225</v>
+        <v>4.17368005753974</v>
       </c>
       <c r="G32" t="n">
-        <v>3.53459970440925</v>
+        <v>3.09839301378813</v>
       </c>
     </row>
     <row r="33">
@@ -1132,10 +1132,10 @@
         <v>11</v>
       </c>
       <c r="F33" t="n">
-        <v>4.36272853035088</v>
+        <v>4.46548040622236</v>
       </c>
       <c r="G33" t="n">
-        <v>3.32951973096301</v>
+        <v>3.28733351361494</v>
       </c>
     </row>
     <row r="34">
@@ -1155,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="F34" t="n">
-        <v>4.41762951598137</v>
+        <v>4.48249422179368</v>
       </c>
       <c r="G34" t="n">
-        <v>3.24328178426515</v>
+        <v>3.16693966168122</v>
       </c>
     </row>
     <row r="35">
@@ -1178,10 +1178,10 @@
         <v>11</v>
       </c>
       <c r="F35" t="n">
-        <v>4.73322039848613</v>
+        <v>4.49177786200022</v>
       </c>
       <c r="G35" t="n">
-        <v>3.55261813457309</v>
+        <v>3.39948714367841</v>
       </c>
     </row>
     <row r="36">
@@ -1201,10 +1201,10 @@
         <v>11</v>
       </c>
       <c r="F36" t="n">
-        <v>4.541513821532</v>
+        <v>4.48316222455376</v>
       </c>
       <c r="G36" t="n">
-        <v>3.57691971938337</v>
+        <v>3.42679729170633</v>
       </c>
     </row>
     <row r="37">
@@ -1224,10 +1224,10 @@
         <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>4.52584878106127</v>
+        <v>4.52904807911331</v>
       </c>
       <c r="G37" t="n">
-        <v>3.28652807250085</v>
+        <v>3.23247748837575</v>
       </c>
     </row>
     <row r="38">
@@ -1247,10 +1247,10 @@
         <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>4.40456692064719</v>
+        <v>4.42374367277666</v>
       </c>
       <c r="G38" t="n">
-        <v>3.50573488216621</v>
+        <v>3.32300706173711</v>
       </c>
     </row>
     <row r="39">
@@ -1270,10 +1270,10 @@
         <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>4.65332634084334</v>
+        <v>4.68807349456427</v>
       </c>
       <c r="G39" t="n">
-        <v>3.50985338839831</v>
+        <v>3.35410140283468</v>
       </c>
     </row>
     <row r="40">
@@ -1293,10 +1293,10 @@
         <v>11</v>
       </c>
       <c r="F40" t="n">
-        <v>4.59290210539116</v>
+        <v>4.36720790536565</v>
       </c>
       <c r="G40" t="n">
-        <v>3.60839792141117</v>
+        <v>3.36063654385542</v>
       </c>
     </row>
     <row r="41">
@@ -1316,10 +1316,10 @@
         <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>4.68866560197902</v>
+        <v>4.38199428694633</v>
       </c>
       <c r="G41" t="n">
-        <v>3.81920304135184</v>
+        <v>3.37712092301091</v>
       </c>
     </row>
     <row r="42">
@@ -1339,10 +1339,10 @@
         <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>0.928</v>
+        <v>0.9405</v>
       </c>
       <c r="G42" t="n">
-        <v>0.961</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="43">
@@ -1362,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="F43" t="n">
-        <v>0.926</v>
+        <v>0.9295</v>
       </c>
       <c r="G43" t="n">
-        <v>0.965</v>
+        <v>0.9535</v>
       </c>
     </row>
     <row r="44">
@@ -1385,10 +1385,10 @@
         <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>0.94</v>
+        <v>0.933</v>
       </c>
       <c r="G44" t="n">
-        <v>0.964</v>
+        <v>0.9595</v>
       </c>
     </row>
     <row r="45">
@@ -1408,10 +1408,10 @@
         <v>8</v>
       </c>
       <c r="F45" t="n">
-        <v>0.919</v>
+        <v>0.924</v>
       </c>
       <c r="G45" t="n">
-        <v>0.95</v>
+        <v>0.9485</v>
       </c>
     </row>
     <row r="46">
@@ -1431,10 +1431,10 @@
         <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>0.935</v>
+        <v>0.927</v>
       </c>
       <c r="G46" t="n">
-        <v>0.962</v>
+        <v>0.9525</v>
       </c>
     </row>
     <row r="47">
@@ -1454,10 +1454,10 @@
         <v>8</v>
       </c>
       <c r="F47" t="n">
-        <v>0.922</v>
+        <v>0.924</v>
       </c>
       <c r="G47" t="n">
-        <v>0.946</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="48">
@@ -1477,10 +1477,10 @@
         <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>0.929</v>
+        <v>0.9345</v>
       </c>
       <c r="G48" t="n">
-        <v>0.961</v>
+        <v>0.9625</v>
       </c>
     </row>
     <row r="49">
@@ -1500,10 +1500,10 @@
         <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>0.933</v>
+        <v>0.9235</v>
       </c>
       <c r="G49" t="n">
-        <v>0.955</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="50">
@@ -1523,10 +1523,10 @@
         <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>0.917</v>
+        <v>0.918</v>
       </c>
       <c r="G50" t="n">
-        <v>0.952</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="51">
@@ -1546,10 +1546,10 @@
         <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>0.93</v>
+        <v>0.917</v>
       </c>
       <c r="G51" t="n">
-        <v>0.952</v>
+        <v>0.9445</v>
       </c>
     </row>
     <row r="52">
@@ -1569,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>26.1223807131888</v>
+        <v>26.0031497767668</v>
       </c>
       <c r="G52" t="n">
-        <v>24.8150189919026</v>
+        <v>24.3806522637469</v>
       </c>
     </row>
     <row r="53">
@@ -1592,10 +1592,10 @@
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>26.4465578150871</v>
+        <v>26.1098592169902</v>
       </c>
       <c r="G53" t="n">
-        <v>25.2632211160501</v>
+        <v>24.4422828694127</v>
       </c>
     </row>
     <row r="54">
@@ -1615,10 +1615,10 @@
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>26.5003010945643</v>
+        <v>26.0591244754411</v>
       </c>
       <c r="G54" t="n">
-        <v>25.0437228719619</v>
+        <v>24.6711246484436</v>
       </c>
     </row>
     <row r="55">
@@ -1638,10 +1638,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>26.6614839011389</v>
+        <v>26.2061214703785</v>
       </c>
       <c r="G55" t="n">
-        <v>25.3812581258266</v>
+        <v>24.6750600721311</v>
       </c>
     </row>
     <row r="56">
@@ -1661,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>26.7327823750457</v>
+        <v>26.312335756815</v>
       </c>
       <c r="G56" t="n">
-        <v>25.3748886578621</v>
+        <v>24.6913555084469</v>
       </c>
     </row>
     <row r="57">
@@ -1684,10 +1684,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>26.4923319169542</v>
+        <v>26.5439717328286</v>
       </c>
       <c r="G57" t="n">
-        <v>25.2268357370041</v>
+        <v>24.9262048863747</v>
       </c>
     </row>
     <row r="58">
@@ -1707,10 +1707,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>26.2543731015382</v>
+        <v>26.6879777901362</v>
       </c>
       <c r="G58" t="n">
-        <v>25.072706907515</v>
+        <v>25.2405027022428</v>
       </c>
     </row>
     <row r="59">
@@ -1730,10 +1730,10 @@
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>26.4486532134259</v>
+        <v>26.5001641752422</v>
       </c>
       <c r="G59" t="n">
-        <v>25.2199846931766</v>
+        <v>25.1847369405491</v>
       </c>
     </row>
     <row r="60">
@@ -1753,10 +1753,10 @@
         <v>9</v>
       </c>
       <c r="F60" t="n">
-        <v>26.52555109529</v>
+        <v>26.6008259358794</v>
       </c>
       <c r="G60" t="n">
-        <v>25.2444469211325</v>
+        <v>25.1543250835731</v>
       </c>
     </row>
     <row r="61">
@@ -1776,10 +1776,10 @@
         <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>26.5448780283444</v>
+        <v>26.68166731295</v>
       </c>
       <c r="G61" t="n">
-        <v>25.4818233048882</v>
+        <v>25.1019219356084</v>
       </c>
     </row>
     <row r="62">
@@ -1799,10 +1799,10 @@
         <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>41.2669043383342</v>
+        <v>40.1343559433235</v>
       </c>
       <c r="G62" t="n">
-        <v>22.9223861638915</v>
+        <v>21.0304091670208</v>
       </c>
     </row>
     <row r="63">
@@ -1822,10 +1822,10 @@
         <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>45.0360178561703</v>
+        <v>41.4311455471099</v>
       </c>
       <c r="G63" t="n">
-        <v>25.9535882383201</v>
+        <v>22.7224446306724</v>
       </c>
     </row>
     <row r="64">
@@ -1845,10 +1845,10 @@
         <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>43.1081123705239</v>
+        <v>44.5746372540064</v>
       </c>
       <c r="G64" t="n">
-        <v>24.6489388072379</v>
+        <v>24.1426246908869</v>
       </c>
     </row>
     <row r="65">
@@ -1868,10 +1868,10 @@
         <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>49.6056356247372</v>
+        <v>46.6111578360062</v>
       </c>
       <c r="G65" t="n">
-        <v>28.8831481701408</v>
+        <v>26.0862026578382</v>
       </c>
     </row>
     <row r="66">
@@ -1891,10 +1891,10 @@
         <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>46.0860664357131</v>
+        <v>44.7251102016563</v>
       </c>
       <c r="G66" t="n">
-        <v>26.7960702881957</v>
+        <v>24.6668301975318</v>
       </c>
     </row>
     <row r="67">
@@ -1914,10 +1914,10 @@
         <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>49.360208865371</v>
+        <v>46.8552230701776</v>
       </c>
       <c r="G67" t="n">
-        <v>30.1217449933561</v>
+        <v>25.3685338632403</v>
       </c>
     </row>
     <row r="68">
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>47.0528803593485</v>
+        <v>49.1260061698969</v>
       </c>
       <c r="G68" t="n">
-        <v>27.9075984655071</v>
+        <v>26.3579934034152</v>
       </c>
     </row>
     <row r="69">
@@ -1960,10 +1960,10 @@
         <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>50.1716381171491</v>
+        <v>51.106612249719</v>
       </c>
       <c r="G69" t="n">
-        <v>29.9096261439815</v>
+        <v>28.4229326400038</v>
       </c>
     </row>
     <row r="70">
@@ -1983,10 +1983,10 @@
         <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>50.5807128500162</v>
+        <v>51.3315756813363</v>
       </c>
       <c r="G70" t="n">
-        <v>30.026094893389</v>
+        <v>29.0682088593169</v>
       </c>
     </row>
     <row r="71">
@@ -2006,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>52.1447124142758</v>
+        <v>52.8688281290829</v>
       </c>
       <c r="G71" t="n">
-        <v>30.2765036249985</v>
+        <v>29.9562629916471</v>
       </c>
     </row>
     <row r="72">
@@ -2029,10 +2029,10 @@
         <v>11</v>
       </c>
       <c r="F72" t="n">
-        <v>4.10938604310392</v>
+        <v>4.12154039723785</v>
       </c>
       <c r="G72" t="n">
-        <v>2.86977007376887</v>
+        <v>2.73470899054864</v>
       </c>
     </row>
     <row r="73">
@@ -2052,10 +2052,10 @@
         <v>11</v>
       </c>
       <c r="F73" t="n">
-        <v>4.22651041293265</v>
+        <v>4.02982229898794</v>
       </c>
       <c r="G73" t="n">
-        <v>3.05132491882055</v>
+        <v>2.72052480819549</v>
       </c>
     </row>
     <row r="74">
@@ -2075,10 +2075,10 @@
         <v>11</v>
       </c>
       <c r="F74" t="n">
-        <v>4.19679862283975</v>
+        <v>4.2797136768842</v>
       </c>
       <c r="G74" t="n">
-        <v>2.91566576100003</v>
+        <v>2.7482460463908</v>
       </c>
     </row>
     <row r="75">
@@ -2098,10 +2098,10 @@
         <v>11</v>
       </c>
       <c r="F75" t="n">
-        <v>4.43964341352602</v>
+        <v>4.49655015650366</v>
       </c>
       <c r="G75" t="n">
-        <v>3.04461120495033</v>
+        <v>2.87857869073361</v>
       </c>
     </row>
     <row r="76">
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="F76" t="n">
-        <v>4.21338127729448</v>
+        <v>4.06327075094888</v>
       </c>
       <c r="G76" t="n">
-        <v>2.98918938857284</v>
+        <v>2.6957128887817</v>
       </c>
     </row>
     <row r="77">
@@ -2144,10 +2144,10 @@
         <v>11</v>
       </c>
       <c r="F77" t="n">
-        <v>4.40241089232451</v>
+        <v>4.06974245164912</v>
       </c>
       <c r="G77" t="n">
-        <v>2.95944875484688</v>
+        <v>2.70158454556954</v>
       </c>
     </row>
     <row r="78">
@@ -2167,10 +2167,10 @@
         <v>11</v>
       </c>
       <c r="F78" t="n">
-        <v>4.21536709232127</v>
+        <v>4.30482974618115</v>
       </c>
       <c r="G78" t="n">
-        <v>2.98253660234336</v>
+        <v>2.77574897178324</v>
       </c>
     </row>
     <row r="79">
@@ -2190,10 +2190,10 @@
         <v>11</v>
       </c>
       <c r="F79" t="n">
-        <v>4.35391354535674</v>
+        <v>4.19841025456148</v>
       </c>
       <c r="G79" t="n">
-        <v>3.04517272199105</v>
+        <v>2.72542569575756</v>
       </c>
     </row>
     <row r="80">
@@ -2213,10 +2213,10 @@
         <v>11</v>
       </c>
       <c r="F80" t="n">
-        <v>4.32572400642676</v>
+        <v>4.26719260409055</v>
       </c>
       <c r="G80" t="n">
-        <v>2.82265125031124</v>
+        <v>2.87336432226819</v>
       </c>
     </row>
     <row r="81">
@@ -2236,10 +2236,10 @@
         <v>11</v>
       </c>
       <c r="F81" t="n">
-        <v>4.60005051680463</v>
+        <v>4.23814501375956</v>
       </c>
       <c r="G81" t="n">
-        <v>3.06280708722966</v>
+        <v>2.81075269246467</v>
       </c>
     </row>
     <row r="82">
@@ -2259,10 +2259,10 @@
         <v>8</v>
       </c>
       <c r="F82" t="n">
-        <v>0.929</v>
+        <v>0.9215</v>
       </c>
       <c r="G82" t="n">
-        <v>0.949</v>
+        <v>0.941</v>
       </c>
     </row>
     <row r="83">
@@ -2282,10 +2282,10 @@
         <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>0.915</v>
+        <v>0.916</v>
       </c>
       <c r="G83" t="n">
-        <v>0.936</v>
+        <v>0.9315</v>
       </c>
     </row>
     <row r="84">
@@ -2308,7 +2308,7 @@
         <v>0.917</v>
       </c>
       <c r="G84" t="n">
-        <v>0.932</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="85">
@@ -2328,10 +2328,10 @@
         <v>8</v>
       </c>
       <c r="F85" t="n">
-        <v>0.913</v>
+        <v>0.9085</v>
       </c>
       <c r="G85" t="n">
-        <v>0.931</v>
+        <v>0.9325</v>
       </c>
     </row>
     <row r="86">
@@ -2351,10 +2351,10 @@
         <v>8</v>
       </c>
       <c r="F86" t="n">
-        <v>0.905</v>
+        <v>0.896</v>
       </c>
       <c r="G86" t="n">
-        <v>0.919</v>
+        <v>0.9185</v>
       </c>
     </row>
     <row r="87">
@@ -2374,10 +2374,10 @@
         <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>0.906</v>
+        <v>0.911</v>
       </c>
       <c r="G87" t="n">
-        <v>0.922</v>
+        <v>0.9285</v>
       </c>
     </row>
     <row r="88">
@@ -2397,10 +2397,10 @@
         <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>0.885</v>
+        <v>0.8915</v>
       </c>
       <c r="G88" t="n">
-        <v>0.908</v>
+        <v>0.9145</v>
       </c>
     </row>
     <row r="89">
@@ -2420,10 +2420,10 @@
         <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>0.894</v>
+        <v>0.8925</v>
       </c>
       <c r="G89" t="n">
-        <v>0.917</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="90">
@@ -2443,10 +2443,10 @@
         <v>8</v>
       </c>
       <c r="F90" t="n">
-        <v>0.905</v>
+        <v>0.8975</v>
       </c>
       <c r="G90" t="n">
-        <v>0.927</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="91">
@@ -2466,10 +2466,10 @@
         <v>8</v>
       </c>
       <c r="F91" t="n">
-        <v>0.909</v>
+        <v>0.905</v>
       </c>
       <c r="G91" t="n">
-        <v>0.937</v>
+        <v>0.9265</v>
       </c>
     </row>
     <row r="92">
@@ -2489,10 +2489,10 @@
         <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>27.1212972233851</v>
+        <v>26.2338887721686</v>
       </c>
       <c r="G92" t="n">
-        <v>26.8260360153353</v>
+        <v>26.1430978185694</v>
       </c>
     </row>
     <row r="93">
@@ -2512,10 +2512,10 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>27.4913892338094</v>
+        <v>26.7332438647461</v>
       </c>
       <c r="G93" t="n">
-        <v>27.6766986375521</v>
+        <v>26.7988663415445</v>
       </c>
     </row>
     <row r="94">
@@ -2535,10 +2535,10 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>27.4777277259953</v>
+        <v>26.8379611199047</v>
       </c>
       <c r="G94" t="n">
-        <v>27.7570503674547</v>
+        <v>27.0607451221001</v>
       </c>
     </row>
     <row r="95">
@@ -2558,10 +2558,10 @@
         <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>27.4693553453452</v>
+        <v>26.8315548225706</v>
       </c>
       <c r="G95" t="n">
-        <v>27.7420548165044</v>
+        <v>26.9744701025176</v>
       </c>
     </row>
     <row r="96">
@@ -2581,10 +2581,10 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>27.6049010414526</v>
+        <v>26.8168818056667</v>
       </c>
       <c r="G96" t="n">
-        <v>28.0703232127051</v>
+        <v>27.0574721722905</v>
       </c>
     </row>
     <row r="97">
@@ -2604,10 +2604,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>27.5926277663686</v>
+        <v>26.942164917843</v>
       </c>
       <c r="G97" t="n">
-        <v>27.7307684162092</v>
+        <v>26.9731208033361</v>
       </c>
     </row>
     <row r="98">
@@ -2627,10 +2627,10 @@
         <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>27.4095921333759</v>
+        <v>26.8683330380583</v>
       </c>
       <c r="G98" t="n">
-        <v>27.5099636857298</v>
+        <v>26.9660639649072</v>
       </c>
     </row>
     <row r="99">
@@ -2650,10 +2650,10 @@
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>27.7093969563895</v>
+        <v>27.0408441215928</v>
       </c>
       <c r="G99" t="n">
-        <v>27.7666419413909</v>
+        <v>27.0752867557547</v>
       </c>
     </row>
     <row r="100">
@@ -2673,10 +2673,10 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>27.8150949068654</v>
+        <v>27.0366931442896</v>
       </c>
       <c r="G100" t="n">
-        <v>27.7869134960913</v>
+        <v>27.0641843987021</v>
       </c>
     </row>
     <row r="101">
@@ -2696,10 +2696,10 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>27.7269489827185</v>
+        <v>27.0417289499872</v>
       </c>
       <c r="G101" t="n">
-        <v>27.7900469708489</v>
+        <v>27.173195294545</v>
       </c>
     </row>
     <row r="102">
@@ -2719,10 +2719,10 @@
         <v>10</v>
       </c>
       <c r="F102" t="n">
-        <v>42.1139234754109</v>
+        <v>39.3634488805861</v>
       </c>
       <c r="G102" t="n">
-        <v>30.4106701692509</v>
+        <v>28.6399552117374</v>
       </c>
     </row>
     <row r="103">
@@ -2742,10 +2742,10 @@
         <v>10</v>
       </c>
       <c r="F103" t="n">
-        <v>48.2753229436049</v>
+        <v>46.4831376060093</v>
       </c>
       <c r="G103" t="n">
-        <v>34.9629304690904</v>
+        <v>33.8092385302724</v>
       </c>
     </row>
     <row r="104">
@@ -2765,10 +2765,10 @@
         <v>10</v>
       </c>
       <c r="F104" t="n">
-        <v>49.1356323188457</v>
+        <v>49.3090940584149</v>
       </c>
       <c r="G104" t="n">
-        <v>35.2440504627069</v>
+        <v>35.2257404477465</v>
       </c>
     </row>
     <row r="105">
@@ -2788,10 +2788,10 @@
         <v>10</v>
       </c>
       <c r="F105" t="n">
-        <v>52.3960335158194</v>
+        <v>50.4935842708568</v>
       </c>
       <c r="G105" t="n">
-        <v>38.7761869362303</v>
+        <v>36.5997314236415</v>
       </c>
     </row>
     <row r="106">
@@ -2811,10 +2811,10 @@
         <v>10</v>
       </c>
       <c r="F106" t="n">
-        <v>55.2319284910557</v>
+        <v>51.8792993161706</v>
       </c>
       <c r="G106" t="n">
-        <v>41.3392736320955</v>
+        <v>38.4998513518642</v>
       </c>
     </row>
     <row r="107">
@@ -2834,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>52.0487143518295</v>
+        <v>49.6820287280381</v>
       </c>
       <c r="G107" t="n">
-        <v>38.8891919822963</v>
+        <v>35.369693207689</v>
       </c>
     </row>
     <row r="108">
@@ -2857,10 +2857,10 @@
         <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>55.7246899520416</v>
+        <v>54.4632401806138</v>
       </c>
       <c r="G108" t="n">
-        <v>42.8204771547684</v>
+        <v>41.232206045265</v>
       </c>
     </row>
     <row r="109">
@@ -2880,10 +2880,10 @@
         <v>10</v>
       </c>
       <c r="F109" t="n">
-        <v>57.5111690045612</v>
+        <v>56.7640887186026</v>
       </c>
       <c r="G109" t="n">
-        <v>42.6119742578159</v>
+        <v>40.6584195505289</v>
       </c>
     </row>
     <row r="110">
@@ -2903,10 +2903,10 @@
         <v>10</v>
       </c>
       <c r="F110" t="n">
-        <v>60.476360431151</v>
+        <v>57.9244072560563</v>
       </c>
       <c r="G110" t="n">
-        <v>44.1136481930242</v>
+        <v>42.9599016094805</v>
       </c>
     </row>
     <row r="111">
@@ -2926,10 +2926,10 @@
         <v>10</v>
       </c>
       <c r="F111" t="n">
-        <v>60.4105783287714</v>
+        <v>56.6348930619158</v>
       </c>
       <c r="G111" t="n">
-        <v>44.3095243160989</v>
+        <v>41.9883016958416</v>
       </c>
     </row>
     <row r="112">
@@ -2949,10 +2949,10 @@
         <v>11</v>
       </c>
       <c r="F112" t="n">
-        <v>3.91169857573837</v>
+        <v>3.86715584296663</v>
       </c>
       <c r="G112" t="n">
-        <v>3.16646125424054</v>
+        <v>3.12669611884466</v>
       </c>
     </row>
     <row r="113">
@@ -2972,10 +2972,10 @@
         <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>4.37207021862821</v>
+        <v>4.21418443891739</v>
       </c>
       <c r="G113" t="n">
-        <v>3.38887174409104</v>
+        <v>3.26081461864142</v>
       </c>
     </row>
     <row r="114">
@@ -2995,10 +2995,10 @@
         <v>11</v>
       </c>
       <c r="F114" t="n">
-        <v>4.57947325259763</v>
+        <v>4.29414574705358</v>
       </c>
       <c r="G114" t="n">
-        <v>3.60324417447696</v>
+        <v>3.43210733003115</v>
       </c>
     </row>
     <row r="115">
@@ -3018,10 +3018,10 @@
         <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>4.54523221578987</v>
+        <v>4.37088279074622</v>
       </c>
       <c r="G115" t="n">
-        <v>3.73199523407453</v>
+        <v>3.55546912166875</v>
       </c>
     </row>
     <row r="116">
@@ -3041,10 +3041,10 @@
         <v>11</v>
       </c>
       <c r="F116" t="n">
-        <v>4.34731557291876</v>
+        <v>4.51299215704462</v>
       </c>
       <c r="G116" t="n">
-        <v>3.56079169940367</v>
+        <v>3.52919920910883</v>
       </c>
     </row>
     <row r="117">
@@ -3064,10 +3064,10 @@
         <v>11</v>
       </c>
       <c r="F117" t="n">
-        <v>4.4849126048333</v>
+        <v>4.46695799232816</v>
       </c>
       <c r="G117" t="n">
-        <v>3.67015282123462</v>
+        <v>3.53090344162174</v>
       </c>
     </row>
     <row r="118">
@@ -3087,10 +3087,10 @@
         <v>11</v>
       </c>
       <c r="F118" t="n">
-        <v>4.57828513891378</v>
+        <v>4.54371798167675</v>
       </c>
       <c r="G118" t="n">
-        <v>3.78529534210129</v>
+        <v>3.55792890791467</v>
       </c>
     </row>
     <row r="119">
@@ -3110,10 +3110,10 @@
         <v>11</v>
       </c>
       <c r="F119" t="n">
-        <v>4.30752022373846</v>
+        <v>4.48489973798337</v>
       </c>
       <c r="G119" t="n">
-        <v>3.65874626870369</v>
+        <v>3.58682046389531</v>
       </c>
     </row>
     <row r="120">
@@ -3133,10 +3133,10 @@
         <v>11</v>
       </c>
       <c r="F120" t="n">
-        <v>4.8045324255591</v>
+        <v>4.54024231995189</v>
       </c>
       <c r="G120" t="n">
-        <v>3.75252777538459</v>
+        <v>3.45602768510544</v>
       </c>
     </row>
     <row r="121">
@@ -3156,10 +3156,10 @@
         <v>11</v>
       </c>
       <c r="F121" t="n">
-        <v>4.78235780035999</v>
+        <v>4.60020987470352</v>
       </c>
       <c r="G121" t="n">
-        <v>3.80079778867863</v>
+        <v>3.52562313053212</v>
       </c>
     </row>
     <row r="122">
@@ -3179,10 +3179,10 @@
         <v>8</v>
       </c>
       <c r="F122" t="n">
-        <v>0.948</v>
+        <v>0.945</v>
       </c>
       <c r="G122" t="n">
-        <v>0.96</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="123">
@@ -3202,10 +3202,10 @@
         <v>8</v>
       </c>
       <c r="F123" t="n">
-        <v>0.928</v>
+        <v>0.9275</v>
       </c>
       <c r="G123" t="n">
-        <v>0.956</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="124">
@@ -3225,10 +3225,10 @@
         <v>8</v>
       </c>
       <c r="F124" t="n">
-        <v>0.915</v>
+        <v>0.928</v>
       </c>
       <c r="G124" t="n">
-        <v>0.954</v>
+        <v>0.9535</v>
       </c>
     </row>
     <row r="125">
@@ -3248,10 +3248,10 @@
         <v>8</v>
       </c>
       <c r="F125" t="n">
-        <v>0.931</v>
+        <v>0.9275</v>
       </c>
       <c r="G125" t="n">
-        <v>0.952</v>
+        <v>0.9555</v>
       </c>
     </row>
     <row r="126">
@@ -3271,10 +3271,10 @@
         <v>8</v>
       </c>
       <c r="F126" t="n">
-        <v>0.934</v>
+        <v>0.9245</v>
       </c>
       <c r="G126" t="n">
-        <v>0.959</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="127">
@@ -3294,10 +3294,10 @@
         <v>8</v>
       </c>
       <c r="F127" t="n">
-        <v>0.929</v>
+        <v>0.923</v>
       </c>
       <c r="G127" t="n">
-        <v>0.952</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="128">
@@ -3317,10 +3317,10 @@
         <v>8</v>
       </c>
       <c r="F128" t="n">
-        <v>0.916</v>
+        <v>0.9315</v>
       </c>
       <c r="G128" t="n">
-        <v>0.948</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="129">
@@ -3340,10 +3340,10 @@
         <v>8</v>
       </c>
       <c r="F129" t="n">
-        <v>0.922</v>
+        <v>0.93</v>
       </c>
       <c r="G129" t="n">
-        <v>0.958</v>
+        <v>0.9575</v>
       </c>
     </row>
     <row r="130">
@@ -3363,10 +3363,10 @@
         <v>8</v>
       </c>
       <c r="F130" t="n">
-        <v>0.932</v>
+        <v>0.9295</v>
       </c>
       <c r="G130" t="n">
-        <v>0.958</v>
+        <v>0.9495</v>
       </c>
     </row>
     <row r="131">
@@ -3386,10 +3386,10 @@
         <v>8</v>
       </c>
       <c r="F131" t="n">
-        <v>0.92</v>
+        <v>0.9265</v>
       </c>
       <c r="G131" t="n">
-        <v>0.956</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="132">
@@ -3409,10 +3409,10 @@
         <v>9</v>
       </c>
       <c r="F132" t="n">
-        <v>26.4583303658281</v>
+        <v>25.8039555623024</v>
       </c>
       <c r="G132" t="n">
-        <v>24.9071068776419</v>
+        <v>24.6370586304737</v>
       </c>
     </row>
     <row r="133">
@@ -3432,10 +3432,10 @@
         <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>26.7646654640557</v>
+        <v>26.2074336116541</v>
       </c>
       <c r="G133" t="n">
-        <v>25.6370895980607</v>
+        <v>24.9492122448223</v>
       </c>
     </row>
     <row r="134">
@@ -3455,10 +3455,10 @@
         <v>9</v>
       </c>
       <c r="F134" t="n">
-        <v>27.1614705482126</v>
+        <v>26.3421824656609</v>
       </c>
       <c r="G134" t="n">
-        <v>25.9415795593766</v>
+        <v>25.0106979469275</v>
       </c>
     </row>
     <row r="135">
@@ -3478,10 +3478,10 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>27.2874262132494</v>
+        <v>26.4603406377967</v>
       </c>
       <c r="G135" t="n">
-        <v>26.0014631535437</v>
+        <v>25.1556624497294</v>
       </c>
     </row>
     <row r="136">
@@ -3501,10 +3501,10 @@
         <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>27.3732101871686</v>
+        <v>26.535735213145</v>
       </c>
       <c r="G136" t="n">
-        <v>25.9347994615478</v>
+        <v>25.3209820958413</v>
       </c>
     </row>
     <row r="137">
@@ -3524,10 +3524,10 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>27.4534401628582</v>
+        <v>26.2631310507855</v>
       </c>
       <c r="G137" t="n">
-        <v>26.1961702846713</v>
+        <v>25.1136602592383</v>
       </c>
     </row>
     <row r="138">
@@ -3547,10 +3547,10 @@
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>27.1152356788292</v>
+        <v>26.3796015283367</v>
       </c>
       <c r="G138" t="n">
-        <v>25.9822838183458</v>
+        <v>25.3035624002716</v>
       </c>
     </row>
     <row r="139">
@@ -3570,10 +3570,10 @@
         <v>9</v>
       </c>
       <c r="F139" t="n">
-        <v>27.1611283572227</v>
+        <v>26.4140502506195</v>
       </c>
       <c r="G139" t="n">
-        <v>25.9331032944879</v>
+        <v>25.4196621000629</v>
       </c>
     </row>
     <row r="140">
@@ -3593,10 +3593,10 @@
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>27.0565680841156</v>
+        <v>26.6415803625048</v>
       </c>
       <c r="G140" t="n">
-        <v>25.7594819514939</v>
+        <v>25.5510996371562</v>
       </c>
     </row>
     <row r="141">
@@ -3616,10 +3616,10 @@
         <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>27.3186123219316</v>
+        <v>26.4502593997523</v>
       </c>
       <c r="G141" t="n">
-        <v>25.9934659731883</v>
+        <v>25.3222543327919</v>
       </c>
     </row>
     <row r="142">
@@ -3639,10 +3639,10 @@
         <v>10</v>
       </c>
       <c r="F142" t="n">
-        <v>41.2728197032619</v>
+        <v>38.070793301551</v>
       </c>
       <c r="G142" t="n">
-        <v>24.6017722110944</v>
+        <v>22.4439037744579</v>
       </c>
     </row>
     <row r="143">
@@ -3662,10 +3662,10 @@
         <v>10</v>
       </c>
       <c r="F143" t="n">
-        <v>45.2986202426906</v>
+        <v>43.2926997594853</v>
       </c>
       <c r="G143" t="n">
-        <v>27.6283895867969</v>
+        <v>25.9194454142281</v>
       </c>
     </row>
     <row r="144">
@@ -3685,10 +3685,10 @@
         <v>10</v>
       </c>
       <c r="F144" t="n">
-        <v>52.8037867121645</v>
+        <v>42.9662127989187</v>
       </c>
       <c r="G144" t="n">
-        <v>31.1236674083901</v>
+        <v>25.4219528889029</v>
       </c>
     </row>
     <row r="145">
@@ -3708,10 +3708,10 @@
         <v>10</v>
       </c>
       <c r="F145" t="n">
-        <v>50.6256436118421</v>
+        <v>44.8031257984196</v>
       </c>
       <c r="G145" t="n">
-        <v>30.5524031670955</v>
+        <v>26.1273106860599</v>
       </c>
     </row>
     <row r="146">
@@ -3731,10 +3731,10 @@
         <v>10</v>
       </c>
       <c r="F146" t="n">
-        <v>47.7590218034833</v>
+        <v>47.9954084879218</v>
       </c>
       <c r="G146" t="n">
-        <v>28.1162547814543</v>
+        <v>28.9268135994757</v>
       </c>
     </row>
     <row r="147">
@@ -3754,10 +3754,10 @@
         <v>10</v>
       </c>
       <c r="F147" t="n">
-        <v>52.3283629740927</v>
+        <v>46.6345275859887</v>
       </c>
       <c r="G147" t="n">
-        <v>31.2390138842296</v>
+        <v>28.4701005993394</v>
       </c>
     </row>
     <row r="148">
@@ -3777,10 +3777,10 @@
         <v>10</v>
       </c>
       <c r="F148" t="n">
-        <v>50.9950608946825</v>
+        <v>47.5799920115717</v>
       </c>
       <c r="G148" t="n">
-        <v>30.1194934715323</v>
+        <v>28.4581797296734</v>
       </c>
     </row>
     <row r="149">
@@ -3800,10 +3800,10 @@
         <v>10</v>
       </c>
       <c r="F149" t="n">
-        <v>46.2546129027451</v>
+        <v>47.7571824981283</v>
       </c>
       <c r="G149" t="n">
-        <v>28.407220343271</v>
+        <v>27.9116094851172</v>
       </c>
     </row>
     <row r="150">
@@ -3823,10 +3823,10 @@
         <v>10</v>
       </c>
       <c r="F150" t="n">
-        <v>46.825814328894</v>
+        <v>51.343826907522</v>
       </c>
       <c r="G150" t="n">
-        <v>27.7684285478198</v>
+        <v>30.1881661132112</v>
       </c>
     </row>
     <row r="151">
@@ -3846,10 +3846,10 @@
         <v>10</v>
       </c>
       <c r="F151" t="n">
-        <v>49.2740301866151</v>
+        <v>45.9957053151082</v>
       </c>
       <c r="G151" t="n">
-        <v>29.8093513754378</v>
+        <v>27.6637102497016</v>
       </c>
     </row>
     <row r="152">
@@ -3869,10 +3869,10 @@
         <v>11</v>
       </c>
       <c r="F152" t="n">
-        <v>4.10433325175427</v>
+        <v>4.00995719334313</v>
       </c>
       <c r="G152" t="n">
-        <v>2.84262240833034</v>
+        <v>2.72160400140212</v>
       </c>
     </row>
     <row r="153">
@@ -3892,10 +3892,10 @@
         <v>11</v>
       </c>
       <c r="F153" t="n">
-        <v>4.29786058426047</v>
+        <v>4.36157698451277</v>
       </c>
       <c r="G153" t="n">
-        <v>2.97561883369203</v>
+        <v>2.88223135570502</v>
       </c>
     </row>
     <row r="154">
@@ -3915,10 +3915,10 @@
         <v>11</v>
       </c>
       <c r="F154" t="n">
-        <v>4.56954233314798</v>
+        <v>4.27926580673587</v>
       </c>
       <c r="G154" t="n">
-        <v>3.35649022414688</v>
+        <v>2.91862855877783</v>
       </c>
     </row>
     <row r="155">
@@ -3938,10 +3938,10 @@
         <v>11</v>
       </c>
       <c r="F155" t="n">
-        <v>4.20093611142404</v>
+        <v>4.10039869481232</v>
       </c>
       <c r="G155" t="n">
-        <v>3.07445980234455</v>
+        <v>2.81019762036879</v>
       </c>
     </row>
     <row r="156">
@@ -3961,10 +3961,10 @@
         <v>11</v>
       </c>
       <c r="F156" t="n">
-        <v>4.35380179905729</v>
+        <v>4.16856308420806</v>
       </c>
       <c r="G156" t="n">
-        <v>3.08822387261957</v>
+        <v>2.86581977438287</v>
       </c>
     </row>
     <row r="157">
@@ -3984,10 +3984,10 @@
         <v>11</v>
       </c>
       <c r="F157" t="n">
-        <v>4.2246178031431</v>
+        <v>4.29742509454881</v>
       </c>
       <c r="G157" t="n">
-        <v>3.08372544990089</v>
+        <v>2.97768640191985</v>
       </c>
     </row>
     <row r="158">
@@ -4007,10 +4007,10 @@
         <v>11</v>
       </c>
       <c r="F158" t="n">
-        <v>4.51523580207114</v>
+        <v>4.21145184324246</v>
       </c>
       <c r="G158" t="n">
-        <v>3.25750813951876</v>
+        <v>2.89941695067987</v>
       </c>
     </row>
     <row r="159">
@@ -4030,10 +4030,10 @@
         <v>11</v>
       </c>
       <c r="F159" t="n">
-        <v>4.15693878336506</v>
+        <v>4.34961524639797</v>
       </c>
       <c r="G159" t="n">
-        <v>3.16118743945465</v>
+        <v>2.88920510251873</v>
       </c>
     </row>
     <row r="160">
@@ -4053,10 +4053,10 @@
         <v>11</v>
       </c>
       <c r="F160" t="n">
-        <v>4.3614684710039</v>
+        <v>4.22245166495901</v>
       </c>
       <c r="G160" t="n">
-        <v>3.00619542387464</v>
+        <v>3.00326521458389</v>
       </c>
     </row>
     <row r="161">
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="F161" t="n">
-        <v>4.30931674723215</v>
+        <v>4.32612818624829</v>
       </c>
       <c r="G161" t="n">
-        <v>3.00638884225742</v>
+        <v>2.95363768969191</v>
       </c>
     </row>
   </sheetData>

--- a/DGP4.xlsx
+++ b/DGP4.xlsx
@@ -377,7 +377,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/DGP4.xlsx
+++ b/DGP4.xlsx
@@ -407,10 +407,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -419,10 +419,10 @@
         <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9065</v>
+        <v>0.9365</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9245</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="3">
@@ -430,10 +430,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
         <v>2</v>
@@ -442,10 +442,10 @@
         <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.906</v>
+        <v>0.9275</v>
       </c>
       <c r="G3" t="n">
-        <v>0.926</v>
+        <v>0.9525</v>
       </c>
     </row>
     <row r="4">
@@ -453,10 +453,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -465,10 +465,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.893</v>
+        <v>0.9175</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9165</v>
+        <v>0.942</v>
       </c>
     </row>
     <row r="5">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
@@ -488,10 +488,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8975</v>
+        <v>0.918</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9205</v>
+        <v>0.942</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
         <v>5</v>
@@ -511,10 +511,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>0.903</v>
+        <v>0.913</v>
       </c>
       <c r="G6" t="n">
-        <v>0.924</v>
+        <v>0.9405</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
         <v>6</v>
@@ -534,10 +534,10 @@
         <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9015</v>
+        <v>0.9185</v>
       </c>
       <c r="G7" t="n">
-        <v>0.927</v>
+        <v>0.9495</v>
       </c>
     </row>
     <row r="8">
@@ -545,10 +545,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
         <v>7</v>
@@ -557,10 +557,10 @@
         <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8965</v>
+        <v>0.9075</v>
       </c>
       <c r="G8" t="n">
-        <v>0.923</v>
+        <v>0.935</v>
       </c>
     </row>
     <row r="9">
@@ -568,10 +568,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
         <v>8</v>
@@ -580,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>0.887</v>
+        <v>0.9035</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9175</v>
+        <v>0.938</v>
       </c>
     </row>
     <row r="10">
@@ -591,10 +591,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
@@ -603,10 +603,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9035</v>
+        <v>0.916</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9235</v>
+        <v>0.942</v>
       </c>
     </row>
     <row r="11">
@@ -614,10 +614,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
@@ -626,10 +626,10 @@
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8975</v>
+        <v>0.919</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9205</v>
+        <v>0.9425</v>
       </c>
     </row>
     <row r="12">
@@ -637,10 +637,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>26.5616616681855</v>
+        <v>26.5723556489652</v>
       </c>
       <c r="G12" t="n">
-        <v>26.0200271252441</v>
+        <v>25.3540255021897</v>
       </c>
     </row>
     <row r="13">
@@ -660,10 +660,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
@@ -672,10 +672,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>27.0517904963064</v>
+        <v>26.9043161013093</v>
       </c>
       <c r="G13" t="n">
-        <v>26.5678969941838</v>
+        <v>25.8150945790857</v>
       </c>
     </row>
     <row r="14">
@@ -683,10 +683,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
@@ -695,10 +695,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>27.2323322945272</v>
+        <v>26.9882877264419</v>
       </c>
       <c r="G14" t="n">
-        <v>26.5511427453972</v>
+        <v>25.894245810738</v>
       </c>
     </row>
     <row r="15">
@@ -706,10 +706,10 @@
         <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
         <v>4</v>
@@ -718,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>27.4361590363419</v>
+        <v>27.1717863205727</v>
       </c>
       <c r="G15" t="n">
-        <v>27.0651919529188</v>
+        <v>26.0465224348375</v>
       </c>
     </row>
     <row r="16">
@@ -729,10 +729,10 @@
         <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
@@ -741,10 +741,10 @@
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>27.3089423621558</v>
+        <v>27.1171481265229</v>
       </c>
       <c r="G16" t="n">
-        <v>27.1927840964</v>
+        <v>26.0414723425821</v>
       </c>
     </row>
     <row r="17">
@@ -752,10 +752,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
         <v>6</v>
@@ -764,10 +764,10 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>27.3106355135966</v>
+        <v>27.0541315832955</v>
       </c>
       <c r="G17" t="n">
-        <v>27.0055080054631</v>
+        <v>26.2244627921209</v>
       </c>
     </row>
     <row r="18">
@@ -775,10 +775,10 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
         <v>7</v>
@@ -787,10 +787,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>27.6024531317402</v>
+        <v>27.147095327306</v>
       </c>
       <c r="G18" t="n">
-        <v>27.1691449604734</v>
+        <v>26.3196782948636</v>
       </c>
     </row>
     <row r="19">
@@ -798,10 +798,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
         <v>8</v>
@@ -810,10 +810,10 @@
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>27.2655031182266</v>
+        <v>27.1078794171792</v>
       </c>
       <c r="G19" t="n">
-        <v>27.0283159205524</v>
+        <v>26.2010421448311</v>
       </c>
     </row>
     <row r="20">
@@ -821,10 +821,10 @@
         <v>7</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
         <v>9</v>
@@ -833,10 +833,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>27.4258940357623</v>
+        <v>26.9421279175648</v>
       </c>
       <c r="G20" t="n">
-        <v>27.2848268801218</v>
+        <v>26.051297814316</v>
       </c>
     </row>
     <row r="21">
@@ -844,10 +844,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D21" t="n">
         <v>10</v>
@@ -856,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>27.6080679623221</v>
+        <v>27.1750141458228</v>
       </c>
       <c r="G21" t="n">
-        <v>27.2862599174287</v>
+        <v>26.220268289652</v>
       </c>
     </row>
     <row r="22">
@@ -867,10 +867,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -879,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>47.4627654302479</v>
+        <v>43.5923186532455</v>
       </c>
       <c r="G22" t="n">
-        <v>31.3915068218832</v>
+        <v>25.1033602367062</v>
       </c>
     </row>
     <row r="23">
@@ -890,10 +890,10 @@
         <v>7</v>
       </c>
       <c r="B23" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -902,10 +902,10 @@
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>51.4396958115909</v>
+        <v>48.69859886042</v>
       </c>
       <c r="G23" t="n">
-        <v>34.0425014698189</v>
+        <v>29.2900254629101</v>
       </c>
     </row>
     <row r="24">
@@ -913,10 +913,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
@@ -925,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>55.3648926567349</v>
+        <v>51.1606410607282</v>
       </c>
       <c r="G24" t="n">
-        <v>36.353888733763</v>
+        <v>29.8339260321031</v>
       </c>
     </row>
     <row r="25">
@@ -936,10 +936,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D25" t="n">
         <v>4</v>
@@ -948,10 +948,10 @@
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>54.0672236007559</v>
+        <v>50.1842536955882</v>
       </c>
       <c r="G25" t="n">
-        <v>36.1706698202455</v>
+        <v>30.4888835181613</v>
       </c>
     </row>
     <row r="26">
@@ -959,10 +959,10 @@
         <v>7</v>
       </c>
       <c r="B26" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D26" t="n">
         <v>5</v>
@@ -971,10 +971,10 @@
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>55.7747953385346</v>
+        <v>49.9584135491449</v>
       </c>
       <c r="G26" t="n">
-        <v>37.9815356091856</v>
+        <v>30.0165312307996</v>
       </c>
     </row>
     <row r="27">
@@ -982,10 +982,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
         <v>6</v>
@@ -994,10 +994,10 @@
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>57.7059899669205</v>
+        <v>50.2388600036071</v>
       </c>
       <c r="G27" t="n">
-        <v>38.2113927777017</v>
+        <v>30.2587276375232</v>
       </c>
     </row>
     <row r="28">
@@ -1005,10 +1005,10 @@
         <v>7</v>
       </c>
       <c r="B28" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D28" t="n">
         <v>7</v>
@@ -1017,10 +1017,10 @@
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>56.9087281871449</v>
+        <v>53.6799279224525</v>
       </c>
       <c r="G28" t="n">
-        <v>38.7957954169864</v>
+        <v>32.5715386289409</v>
       </c>
     </row>
     <row r="29">
@@ -1028,10 +1028,10 @@
         <v>7</v>
       </c>
       <c r="B29" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
         <v>8</v>
@@ -1040,10 +1040,10 @@
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>60.961602159762</v>
+        <v>55.6408335938654</v>
       </c>
       <c r="G29" t="n">
-        <v>41.4258375532624</v>
+        <v>33.0952896773704</v>
       </c>
     </row>
     <row r="30">
@@ -1051,10 +1051,10 @@
         <v>7</v>
       </c>
       <c r="B30" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D30" t="n">
         <v>9</v>
@@ -1063,10 +1063,10 @@
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>58.2103599991762</v>
+        <v>52.7856807151148</v>
       </c>
       <c r="G30" t="n">
-        <v>40.2359338471385</v>
+        <v>32.2242698283482</v>
       </c>
     </row>
     <row r="31">
@@ -1074,10 +1074,10 @@
         <v>7</v>
       </c>
       <c r="B31" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D31" t="n">
         <v>10</v>
@@ -1086,10 +1086,10 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>59.6615123527862</v>
+        <v>52.7189353542258</v>
       </c>
       <c r="G31" t="n">
-        <v>40.963213661489</v>
+        <v>32.8149540785345</v>
       </c>
     </row>
     <row r="32">
@@ -1097,10 +1097,10 @@
         <v>7</v>
       </c>
       <c r="B32" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
@@ -1109,10 +1109,10 @@
         <v>11</v>
       </c>
       <c r="F32" t="n">
-        <v>4.17368005753974</v>
+        <v>4.19862241567014</v>
       </c>
       <c r="G32" t="n">
-        <v>3.09839301378813</v>
+        <v>2.8619129692635</v>
       </c>
     </row>
     <row r="33">
@@ -1120,10 +1120,10 @@
         <v>7</v>
       </c>
       <c r="B33" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C33" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D33" t="n">
         <v>2</v>
@@ -1132,10 +1132,10 @@
         <v>11</v>
       </c>
       <c r="F33" t="n">
-        <v>4.46548040622236</v>
+        <v>4.37118045851575</v>
       </c>
       <c r="G33" t="n">
-        <v>3.28733351361494</v>
+        <v>3.00959793781424</v>
       </c>
     </row>
     <row r="34">
@@ -1143,10 +1143,10 @@
         <v>7</v>
       </c>
       <c r="B34" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C34" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D34" t="n">
         <v>3</v>
@@ -1155,10 +1155,10 @@
         <v>11</v>
       </c>
       <c r="F34" t="n">
-        <v>4.48249422179368</v>
+        <v>4.33670504852863</v>
       </c>
       <c r="G34" t="n">
-        <v>3.16693966168122</v>
+        <v>2.99990076594503</v>
       </c>
     </row>
     <row r="35">
@@ -1166,10 +1166,10 @@
         <v>7</v>
       </c>
       <c r="B35" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C35" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D35" t="n">
         <v>4</v>
@@ -1178,10 +1178,10 @@
         <v>11</v>
       </c>
       <c r="F35" t="n">
-        <v>4.49177786200022</v>
+        <v>4.40948271700321</v>
       </c>
       <c r="G35" t="n">
-        <v>3.39948714367841</v>
+        <v>3.03421263266259</v>
       </c>
     </row>
     <row r="36">
@@ -1189,10 +1189,10 @@
         <v>7</v>
       </c>
       <c r="B36" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C36" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D36" t="n">
         <v>5</v>
@@ -1201,10 +1201,10 @@
         <v>11</v>
       </c>
       <c r="F36" t="n">
-        <v>4.48316222455376</v>
+        <v>4.38487341853001</v>
       </c>
       <c r="G36" t="n">
-        <v>3.42679729170633</v>
+        <v>2.9969314055732</v>
       </c>
     </row>
     <row r="37">
@@ -1212,10 +1212,10 @@
         <v>7</v>
       </c>
       <c r="B37" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C37" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D37" t="n">
         <v>6</v>
@@ -1224,10 +1224,10 @@
         <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>4.52904807911331</v>
+        <v>4.45767101017718</v>
       </c>
       <c r="G37" t="n">
-        <v>3.23247748837575</v>
+        <v>3.07037228594572</v>
       </c>
     </row>
     <row r="38">
@@ -1235,10 +1235,10 @@
         <v>7</v>
       </c>
       <c r="B38" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C38" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D38" t="n">
         <v>7</v>
@@ -1247,10 +1247,10 @@
         <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>4.42374367277666</v>
+        <v>4.60963704945846</v>
       </c>
       <c r="G38" t="n">
-        <v>3.32300706173711</v>
+        <v>3.14249057085437</v>
       </c>
     </row>
     <row r="39">
@@ -1258,10 +1258,10 @@
         <v>7</v>
       </c>
       <c r="B39" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C39" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D39" t="n">
         <v>8</v>
@@ -1270,10 +1270,10 @@
         <v>11</v>
       </c>
       <c r="F39" t="n">
-        <v>4.68807349456427</v>
+        <v>4.54749404882839</v>
       </c>
       <c r="G39" t="n">
-        <v>3.35410140283468</v>
+        <v>3.22011166374382</v>
       </c>
     </row>
     <row r="40">
@@ -1281,10 +1281,10 @@
         <v>7</v>
       </c>
       <c r="B40" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D40" t="n">
         <v>9</v>
@@ -1293,10 +1293,10 @@
         <v>11</v>
       </c>
       <c r="F40" t="n">
-        <v>4.36720790536565</v>
+        <v>4.49103905676261</v>
       </c>
       <c r="G40" t="n">
-        <v>3.36063654385542</v>
+        <v>3.11688885386389</v>
       </c>
     </row>
     <row r="41">
@@ -1304,10 +1304,10 @@
         <v>7</v>
       </c>
       <c r="B41" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D41" t="n">
         <v>10</v>
@@ -1316,10 +1316,10 @@
         <v>11</v>
       </c>
       <c r="F41" t="n">
-        <v>4.38199428694633</v>
+        <v>4.4308635294337</v>
       </c>
       <c r="G41" t="n">
-        <v>3.37712092301091</v>
+        <v>3.13288889913792</v>
       </c>
     </row>
     <row r="42">
@@ -1327,7 +1327,7 @@
         <v>7</v>
       </c>
       <c r="B42" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C42" t="n">
         <v>70</v>
@@ -1339,10 +1339,10 @@
         <v>8</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9405</v>
+        <v>0.9325</v>
       </c>
       <c r="G42" t="n">
-        <v>0.965</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="43">
@@ -1350,7 +1350,7 @@
         <v>7</v>
       </c>
       <c r="B43" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C43" t="n">
         <v>70</v>
@@ -1362,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9295</v>
+        <v>0.927</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9535</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="44">
@@ -1373,7 +1373,7 @@
         <v>7</v>
       </c>
       <c r="B44" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C44" t="n">
         <v>70</v>
@@ -1385,10 +1385,10 @@
         <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>0.933</v>
+        <v>0.922</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9595</v>
+        <v>0.9615</v>
       </c>
     </row>
     <row r="45">
@@ -1396,7 +1396,7 @@
         <v>7</v>
       </c>
       <c r="B45" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C45" t="n">
         <v>70</v>
@@ -1408,10 +1408,10 @@
         <v>8</v>
       </c>
       <c r="F45" t="n">
-        <v>0.924</v>
+        <v>0.9295</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9485</v>
+        <v>0.9575</v>
       </c>
     </row>
     <row r="46">
@@ -1419,7 +1419,7 @@
         <v>7</v>
       </c>
       <c r="B46" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C46" t="n">
         <v>70</v>
@@ -1431,7 +1431,7 @@
         <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>0.927</v>
+        <v>0.917</v>
       </c>
       <c r="G46" t="n">
         <v>0.9525</v>
@@ -1442,7 +1442,7 @@
         <v>7</v>
       </c>
       <c r="B47" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C47" t="n">
         <v>70</v>
@@ -1454,10 +1454,10 @@
         <v>8</v>
       </c>
       <c r="F47" t="n">
-        <v>0.924</v>
+        <v>0.929</v>
       </c>
       <c r="G47" t="n">
-        <v>0.957</v>
+        <v>0.9585</v>
       </c>
     </row>
     <row r="48">
@@ -1465,7 +1465,7 @@
         <v>7</v>
       </c>
       <c r="B48" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C48" t="n">
         <v>70</v>
@@ -1477,10 +1477,10 @@
         <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9345</v>
+        <v>0.926</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9625</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="49">
@@ -1488,7 +1488,7 @@
         <v>7</v>
       </c>
       <c r="B49" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C49" t="n">
         <v>70</v>
@@ -1500,10 +1500,10 @@
         <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9235</v>
+        <v>0.917</v>
       </c>
       <c r="G49" t="n">
-        <v>0.96</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="50">
@@ -1511,7 +1511,7 @@
         <v>7</v>
       </c>
       <c r="B50" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C50" t="n">
         <v>70</v>
@@ -1523,10 +1523,10 @@
         <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>0.918</v>
+        <v>0.922</v>
       </c>
       <c r="G50" t="n">
-        <v>0.955</v>
+        <v>0.9565</v>
       </c>
     </row>
     <row r="51">
@@ -1534,7 +1534,7 @@
         <v>7</v>
       </c>
       <c r="B51" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C51" t="n">
         <v>70</v>
@@ -1546,10 +1546,10 @@
         <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>0.917</v>
+        <v>0.9255</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9445</v>
+        <v>0.9595</v>
       </c>
     </row>
     <row r="52">
@@ -1557,7 +1557,7 @@
         <v>7</v>
       </c>
       <c r="B52" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C52" t="n">
         <v>70</v>
@@ -1569,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>26.0031497767668</v>
+        <v>26.2261423839425</v>
       </c>
       <c r="G52" t="n">
-        <v>24.3806522637469</v>
+        <v>24.1377243536176</v>
       </c>
     </row>
     <row r="53">
@@ -1580,7 +1580,7 @@
         <v>7</v>
       </c>
       <c r="B53" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C53" t="n">
         <v>70</v>
@@ -1592,10 +1592,10 @@
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>26.1098592169902</v>
+        <v>26.4348828669526</v>
       </c>
       <c r="G53" t="n">
-        <v>24.4422828694127</v>
+        <v>24.587044035563</v>
       </c>
     </row>
     <row r="54">
@@ -1603,7 +1603,7 @@
         <v>7</v>
       </c>
       <c r="B54" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C54" t="n">
         <v>70</v>
@@ -1615,10 +1615,10 @@
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>26.0591244754411</v>
+        <v>26.6136345481336</v>
       </c>
       <c r="G54" t="n">
-        <v>24.6711246484436</v>
+        <v>24.7231574383543</v>
       </c>
     </row>
     <row r="55">
@@ -1626,7 +1626,7 @@
         <v>7</v>
       </c>
       <c r="B55" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C55" t="n">
         <v>70</v>
@@ -1638,10 +1638,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>26.2061214703785</v>
+        <v>26.5697111279047</v>
       </c>
       <c r="G55" t="n">
-        <v>24.6750600721311</v>
+        <v>24.6683949531597</v>
       </c>
     </row>
     <row r="56">
@@ -1649,7 +1649,7 @@
         <v>7</v>
       </c>
       <c r="B56" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C56" t="n">
         <v>70</v>
@@ -1661,10 +1661,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>26.312335756815</v>
+        <v>26.6433050922106</v>
       </c>
       <c r="G56" t="n">
-        <v>24.6913555084469</v>
+        <v>24.7790562646179</v>
       </c>
     </row>
     <row r="57">
@@ -1672,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="B57" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C57" t="n">
         <v>70</v>
@@ -1684,10 +1684,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>26.5439717328286</v>
+        <v>26.4082400937855</v>
       </c>
       <c r="G57" t="n">
-        <v>24.9262048863747</v>
+        <v>24.6487181363151</v>
       </c>
     </row>
     <row r="58">
@@ -1695,7 +1695,7 @@
         <v>7</v>
       </c>
       <c r="B58" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C58" t="n">
         <v>70</v>
@@ -1707,10 +1707,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>26.6879777901362</v>
+        <v>26.5836076166393</v>
       </c>
       <c r="G58" t="n">
-        <v>25.2405027022428</v>
+        <v>24.8377093185663</v>
       </c>
     </row>
     <row r="59">
@@ -1718,7 +1718,7 @@
         <v>7</v>
       </c>
       <c r="B59" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C59" t="n">
         <v>70</v>
@@ -1730,10 +1730,10 @@
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>26.5001641752422</v>
+        <v>26.6784015722756</v>
       </c>
       <c r="G59" t="n">
-        <v>25.1847369405491</v>
+        <v>24.8594369571868</v>
       </c>
     </row>
     <row r="60">
@@ -1741,7 +1741,7 @@
         <v>7</v>
       </c>
       <c r="B60" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C60" t="n">
         <v>70</v>
@@ -1753,10 +1753,10 @@
         <v>9</v>
       </c>
       <c r="F60" t="n">
-        <v>26.6008259358794</v>
+        <v>26.6721026606261</v>
       </c>
       <c r="G60" t="n">
-        <v>25.1543250835731</v>
+        <v>25.0473371045532</v>
       </c>
     </row>
     <row r="61">
@@ -1764,7 +1764,7 @@
         <v>7</v>
       </c>
       <c r="B61" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C61" t="n">
         <v>70</v>
@@ -1776,10 +1776,10 @@
         <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>26.68166731295</v>
+        <v>26.6577836457837</v>
       </c>
       <c r="G61" t="n">
-        <v>25.1019219356084</v>
+        <v>25.0216438740606</v>
       </c>
     </row>
     <row r="62">
@@ -1787,7 +1787,7 @@
         <v>7</v>
       </c>
       <c r="B62" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C62" t="n">
         <v>70</v>
@@ -1799,10 +1799,10 @@
         <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>40.1343559433235</v>
+        <v>41.2607961768871</v>
       </c>
       <c r="G62" t="n">
-        <v>21.0304091670208</v>
+        <v>21.5532976044888</v>
       </c>
     </row>
     <row r="63">
@@ -1810,7 +1810,7 @@
         <v>7</v>
       </c>
       <c r="B63" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C63" t="n">
         <v>70</v>
@@ -1822,10 +1822,10 @@
         <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>41.4311455471099</v>
+        <v>44.6182535954385</v>
       </c>
       <c r="G63" t="n">
-        <v>22.7224446306724</v>
+        <v>23.9454807084248</v>
       </c>
     </row>
     <row r="64">
@@ -1833,7 +1833,7 @@
         <v>7</v>
       </c>
       <c r="B64" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C64" t="n">
         <v>70</v>
@@ -1845,10 +1845,10 @@
         <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>44.5746372540064</v>
+        <v>47.4277636906115</v>
       </c>
       <c r="G64" t="n">
-        <v>24.1426246908869</v>
+        <v>24.9293069324574</v>
       </c>
     </row>
     <row r="65">
@@ -1856,7 +1856,7 @@
         <v>7</v>
       </c>
       <c r="B65" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C65" t="n">
         <v>70</v>
@@ -1868,10 +1868,10 @@
         <v>10</v>
       </c>
       <c r="F65" t="n">
-        <v>46.6111578360062</v>
+        <v>50.1343078831221</v>
       </c>
       <c r="G65" t="n">
-        <v>26.0862026578382</v>
+        <v>25.7022465230226</v>
       </c>
     </row>
     <row r="66">
@@ -1879,7 +1879,7 @@
         <v>7</v>
       </c>
       <c r="B66" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C66" t="n">
         <v>70</v>
@@ -1891,10 +1891,10 @@
         <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>44.7251102016563</v>
+        <v>49.6354415221765</v>
       </c>
       <c r="G66" t="n">
-        <v>24.6668301975318</v>
+        <v>26.9550554856744</v>
       </c>
     </row>
     <row r="67">
@@ -1902,7 +1902,7 @@
         <v>7</v>
       </c>
       <c r="B67" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C67" t="n">
         <v>70</v>
@@ -1914,10 +1914,10 @@
         <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>46.8552230701776</v>
+        <v>47.5957923006247</v>
       </c>
       <c r="G67" t="n">
-        <v>25.3685338632403</v>
+        <v>25.4356441814395</v>
       </c>
     </row>
     <row r="68">
@@ -1925,7 +1925,7 @@
         <v>7</v>
       </c>
       <c r="B68" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C68" t="n">
         <v>70</v>
@@ -1937,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>49.1260061698969</v>
+        <v>47.493469825094</v>
       </c>
       <c r="G68" t="n">
-        <v>26.3579934034152</v>
+        <v>25.2323922799175</v>
       </c>
     </row>
     <row r="69">
@@ -1948,7 +1948,7 @@
         <v>7</v>
       </c>
       <c r="B69" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C69" t="n">
         <v>70</v>
@@ -1960,10 +1960,10 @@
         <v>10</v>
       </c>
       <c r="F69" t="n">
-        <v>51.106612249719</v>
+        <v>49.0304644864591</v>
       </c>
       <c r="G69" t="n">
-        <v>28.4229326400038</v>
+        <v>25.9748452907275</v>
       </c>
     </row>
     <row r="70">
@@ -1971,7 +1971,7 @@
         <v>7</v>
       </c>
       <c r="B70" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C70" t="n">
         <v>70</v>
@@ -1983,10 +1983,10 @@
         <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>51.3315756813363</v>
+        <v>48.7067196992391</v>
       </c>
       <c r="G70" t="n">
-        <v>29.0682088593169</v>
+        <v>26.7524647775239</v>
       </c>
     </row>
     <row r="71">
@@ -1994,7 +1994,7 @@
         <v>7</v>
       </c>
       <c r="B71" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C71" t="n">
         <v>70</v>
@@ -2006,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>52.8688281290829</v>
+        <v>47.9265062529914</v>
       </c>
       <c r="G71" t="n">
-        <v>29.9562629916471</v>
+        <v>25.61821506639</v>
       </c>
     </row>
     <row r="72">
@@ -2017,7 +2017,7 @@
         <v>7</v>
       </c>
       <c r="B72" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C72" t="n">
         <v>70</v>
@@ -2029,10 +2029,10 @@
         <v>11</v>
       </c>
       <c r="F72" t="n">
-        <v>4.12154039723785</v>
+        <v>4.09456205158741</v>
       </c>
       <c r="G72" t="n">
-        <v>2.73470899054864</v>
+        <v>2.71493727332837</v>
       </c>
     </row>
     <row r="73">
@@ -2040,7 +2040,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C73" t="n">
         <v>70</v>
@@ -2052,10 +2052,10 @@
         <v>11</v>
       </c>
       <c r="F73" t="n">
-        <v>4.02982229898794</v>
+        <v>4.03477406671167</v>
       </c>
       <c r="G73" t="n">
-        <v>2.72052480819549</v>
+        <v>2.78157601461594</v>
       </c>
     </row>
     <row r="74">
@@ -2063,7 +2063,7 @@
         <v>7</v>
       </c>
       <c r="B74" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C74" t="n">
         <v>70</v>
@@ -2075,10 +2075,10 @@
         <v>11</v>
       </c>
       <c r="F74" t="n">
-        <v>4.2797136768842</v>
+        <v>4.35146590086342</v>
       </c>
       <c r="G74" t="n">
-        <v>2.7482460463908</v>
+        <v>2.67870886920649</v>
       </c>
     </row>
     <row r="75">
@@ -2086,7 +2086,7 @@
         <v>7</v>
       </c>
       <c r="B75" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C75" t="n">
         <v>70</v>
@@ -2098,10 +2098,10 @@
         <v>11</v>
       </c>
       <c r="F75" t="n">
-        <v>4.49655015650366</v>
+        <v>4.42495931282448</v>
       </c>
       <c r="G75" t="n">
-        <v>2.87857869073361</v>
+        <v>2.82575136399178</v>
       </c>
     </row>
     <row r="76">
@@ -2109,7 +2109,7 @@
         <v>7</v>
       </c>
       <c r="B76" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C76" t="n">
         <v>70</v>
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="F76" t="n">
-        <v>4.06327075094888</v>
+        <v>4.24988728682255</v>
       </c>
       <c r="G76" t="n">
-        <v>2.6957128887817</v>
+        <v>2.74187099932379</v>
       </c>
     </row>
     <row r="77">
@@ -2132,7 +2132,7 @@
         <v>7</v>
       </c>
       <c r="B77" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C77" t="n">
         <v>70</v>
@@ -2144,10 +2144,10 @@
         <v>11</v>
       </c>
       <c r="F77" t="n">
-        <v>4.06974245164912</v>
+        <v>4.25419078087394</v>
       </c>
       <c r="G77" t="n">
-        <v>2.70158454556954</v>
+        <v>2.77535650368738</v>
       </c>
     </row>
     <row r="78">
@@ -2155,7 +2155,7 @@
         <v>7</v>
       </c>
       <c r="B78" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C78" t="n">
         <v>70</v>
@@ -2167,10 +2167,10 @@
         <v>11</v>
       </c>
       <c r="F78" t="n">
-        <v>4.30482974618115</v>
+        <v>4.44771485339359</v>
       </c>
       <c r="G78" t="n">
-        <v>2.77574897178324</v>
+        <v>2.81862475411392</v>
       </c>
     </row>
     <row r="79">
@@ -2178,7 +2178,7 @@
         <v>7</v>
       </c>
       <c r="B79" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C79" t="n">
         <v>70</v>
@@ -2190,10 +2190,10 @@
         <v>11</v>
       </c>
       <c r="F79" t="n">
-        <v>4.19841025456148</v>
+        <v>4.144126264718</v>
       </c>
       <c r="G79" t="n">
-        <v>2.72542569575756</v>
+        <v>2.72347678216186</v>
       </c>
     </row>
     <row r="80">
@@ -2201,7 +2201,7 @@
         <v>7</v>
       </c>
       <c r="B80" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C80" t="n">
         <v>70</v>
@@ -2213,10 +2213,10 @@
         <v>11</v>
       </c>
       <c r="F80" t="n">
-        <v>4.26719260409055</v>
+        <v>4.20001236472661</v>
       </c>
       <c r="G80" t="n">
-        <v>2.87336432226819</v>
+        <v>2.69317195847736</v>
       </c>
     </row>
     <row r="81">
@@ -2224,7 +2224,7 @@
         <v>7</v>
       </c>
       <c r="B81" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C81" t="n">
         <v>70</v>
@@ -2236,10 +2236,10 @@
         <v>11</v>
       </c>
       <c r="F81" t="n">
-        <v>4.23814501375956</v>
+        <v>4.26645111560976</v>
       </c>
       <c r="G81" t="n">
-        <v>2.81075269246467</v>
+        <v>2.77754452741085</v>
       </c>
     </row>
     <row r="82">
@@ -2247,10 +2247,10 @@
         <v>7</v>
       </c>
       <c r="B82" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C82" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D82" t="n">
         <v>1</v>
@@ -2259,10 +2259,10 @@
         <v>8</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9215</v>
+        <v>0.9235</v>
       </c>
       <c r="G82" t="n">
-        <v>0.941</v>
+        <v>0.9495</v>
       </c>
     </row>
     <row r="83">
@@ -2270,10 +2270,10 @@
         <v>7</v>
       </c>
       <c r="B83" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C83" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D83" t="n">
         <v>2</v>
@@ -2282,10 +2282,10 @@
         <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>0.916</v>
+        <v>0.925</v>
       </c>
       <c r="G83" t="n">
-        <v>0.9315</v>
+        <v>0.944</v>
       </c>
     </row>
     <row r="84">
@@ -2293,10 +2293,10 @@
         <v>7</v>
       </c>
       <c r="B84" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C84" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D84" t="n">
         <v>3</v>
@@ -2305,10 +2305,10 @@
         <v>8</v>
       </c>
       <c r="F84" t="n">
-        <v>0.917</v>
+        <v>0.9185</v>
       </c>
       <c r="G84" t="n">
-        <v>0.94</v>
+        <v>0.944</v>
       </c>
     </row>
     <row r="85">
@@ -2316,10 +2316,10 @@
         <v>7</v>
       </c>
       <c r="B85" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C85" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D85" t="n">
         <v>4</v>
@@ -2328,10 +2328,10 @@
         <v>8</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9085</v>
+        <v>0.919</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9325</v>
+        <v>0.9435</v>
       </c>
     </row>
     <row r="86">
@@ -2339,10 +2339,10 @@
         <v>7</v>
       </c>
       <c r="B86" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C86" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D86" t="n">
         <v>5</v>
@@ -2351,10 +2351,10 @@
         <v>8</v>
       </c>
       <c r="F86" t="n">
-        <v>0.896</v>
+        <v>0.9165</v>
       </c>
       <c r="G86" t="n">
-        <v>0.9185</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="87">
@@ -2362,10 +2362,10 @@
         <v>7</v>
       </c>
       <c r="B87" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C87" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D87" t="n">
         <v>6</v>
@@ -2374,10 +2374,10 @@
         <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>0.911</v>
+        <v>0.9095</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9285</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="88">
@@ -2385,10 +2385,10 @@
         <v>7</v>
       </c>
       <c r="B88" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C88" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D88" t="n">
         <v>7</v>
@@ -2397,10 +2397,10 @@
         <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>0.8915</v>
+        <v>0.916</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9145</v>
+        <v>0.942</v>
       </c>
     </row>
     <row r="89">
@@ -2408,10 +2408,10 @@
         <v>7</v>
       </c>
       <c r="B89" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C89" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D89" t="n">
         <v>8</v>
@@ -2420,10 +2420,10 @@
         <v>8</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8925</v>
+        <v>0.921</v>
       </c>
       <c r="G89" t="n">
-        <v>0.92</v>
+        <v>0.9425</v>
       </c>
     </row>
     <row r="90">
@@ -2431,10 +2431,10 @@
         <v>7</v>
       </c>
       <c r="B90" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C90" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D90" t="n">
         <v>9</v>
@@ -2443,10 +2443,10 @@
         <v>8</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8975</v>
+        <v>0.926</v>
       </c>
       <c r="G90" t="n">
-        <v>0.919</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="91">
@@ -2454,10 +2454,10 @@
         <v>7</v>
       </c>
       <c r="B91" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C91" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D91" t="n">
         <v>10</v>
@@ -2466,10 +2466,10 @@
         <v>8</v>
       </c>
       <c r="F91" t="n">
-        <v>0.905</v>
+        <v>0.914</v>
       </c>
       <c r="G91" t="n">
-        <v>0.9265</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="92">
@@ -2477,10 +2477,10 @@
         <v>7</v>
       </c>
       <c r="B92" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C92" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -2489,10 +2489,10 @@
         <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>26.2338887721686</v>
+        <v>27.0615605797606</v>
       </c>
       <c r="G92" t="n">
-        <v>26.1430978185694</v>
+        <v>26.1374147789988</v>
       </c>
     </row>
     <row r="93">
@@ -2500,10 +2500,10 @@
         <v>7</v>
       </c>
       <c r="B93" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C93" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
@@ -2512,10 +2512,10 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>26.7332438647461</v>
+        <v>27.3247019262569</v>
       </c>
       <c r="G93" t="n">
-        <v>26.7988663415445</v>
+        <v>26.4486458207777</v>
       </c>
     </row>
     <row r="94">
@@ -2523,10 +2523,10 @@
         <v>7</v>
       </c>
       <c r="B94" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C94" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D94" t="n">
         <v>3</v>
@@ -2535,10 +2535,10 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>26.8379611199047</v>
+        <v>27.4221035274112</v>
       </c>
       <c r="G94" t="n">
-        <v>27.0607451221001</v>
+        <v>26.7759985475262</v>
       </c>
     </row>
     <row r="95">
@@ -2546,10 +2546,10 @@
         <v>7</v>
       </c>
       <c r="B95" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C95" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D95" t="n">
         <v>4</v>
@@ -2558,10 +2558,10 @@
         <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>26.8315548225706</v>
+        <v>27.5585149018864</v>
       </c>
       <c r="G95" t="n">
-        <v>26.9744701025176</v>
+        <v>26.7062653146597</v>
       </c>
     </row>
     <row r="96">
@@ -2569,10 +2569,10 @@
         <v>7</v>
       </c>
       <c r="B96" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C96" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D96" t="n">
         <v>5</v>
@@ -2581,10 +2581,10 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>26.8168818056667</v>
+        <v>27.4283324759222</v>
       </c>
       <c r="G96" t="n">
-        <v>27.0574721722905</v>
+        <v>26.6755036530538</v>
       </c>
     </row>
     <row r="97">
@@ -2592,10 +2592,10 @@
         <v>7</v>
       </c>
       <c r="B97" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C97" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D97" t="n">
         <v>6</v>
@@ -2604,10 +2604,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>26.942164917843</v>
+        <v>27.366004377136</v>
       </c>
       <c r="G97" t="n">
-        <v>26.9731208033361</v>
+        <v>26.7644327490205</v>
       </c>
     </row>
     <row r="98">
@@ -2615,10 +2615,10 @@
         <v>7</v>
       </c>
       <c r="B98" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C98" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D98" t="n">
         <v>7</v>
@@ -2627,10 +2627,10 @@
         <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>26.8683330380583</v>
+        <v>27.2916469271078</v>
       </c>
       <c r="G98" t="n">
-        <v>26.9660639649072</v>
+        <v>26.6569832923742</v>
       </c>
     </row>
     <row r="99">
@@ -2638,10 +2638,10 @@
         <v>7</v>
       </c>
       <c r="B99" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C99" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D99" t="n">
         <v>8</v>
@@ -2650,10 +2650,10 @@
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>27.0408441215928</v>
+        <v>27.2834307681269</v>
       </c>
       <c r="G99" t="n">
-        <v>27.0752867557547</v>
+        <v>26.715568569152</v>
       </c>
     </row>
     <row r="100">
@@ -2661,10 +2661,10 @@
         <v>7</v>
       </c>
       <c r="B100" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C100" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D100" t="n">
         <v>9</v>
@@ -2673,10 +2673,10 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>27.0366931442896</v>
+        <v>27.5863528359746</v>
       </c>
       <c r="G100" t="n">
-        <v>27.0641843987021</v>
+        <v>26.9654773539478</v>
       </c>
     </row>
     <row r="101">
@@ -2684,10 +2684,10 @@
         <v>7</v>
       </c>
       <c r="B101" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C101" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D101" t="n">
         <v>10</v>
@@ -2696,10 +2696,10 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>27.0417289499872</v>
+        <v>27.4708876028886</v>
       </c>
       <c r="G101" t="n">
-        <v>27.173195294545</v>
+        <v>26.9065045474889</v>
       </c>
     </row>
     <row r="102">
@@ -2707,10 +2707,10 @@
         <v>7</v>
       </c>
       <c r="B102" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C102" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
@@ -2719,10 +2719,10 @@
         <v>10</v>
       </c>
       <c r="F102" t="n">
-        <v>39.3634488805861</v>
+        <v>41.4764988839266</v>
       </c>
       <c r="G102" t="n">
-        <v>28.6399552117374</v>
+        <v>26.3782320020568</v>
       </c>
     </row>
     <row r="103">
@@ -2730,10 +2730,10 @@
         <v>7</v>
       </c>
       <c r="B103" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C103" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D103" t="n">
         <v>2</v>
@@ -2742,10 +2742,10 @@
         <v>10</v>
       </c>
       <c r="F103" t="n">
-        <v>46.4831376060093</v>
+        <v>48.6562023308556</v>
       </c>
       <c r="G103" t="n">
-        <v>33.8092385302724</v>
+        <v>28.8636659901985</v>
       </c>
     </row>
     <row r="104">
@@ -2753,10 +2753,10 @@
         <v>7</v>
       </c>
       <c r="B104" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C104" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D104" t="n">
         <v>3</v>
@@ -2765,10 +2765,10 @@
         <v>10</v>
       </c>
       <c r="F104" t="n">
-        <v>49.3090940584149</v>
+        <v>48.8511241874802</v>
       </c>
       <c r="G104" t="n">
-        <v>35.2257404477465</v>
+        <v>30.7876113586208</v>
       </c>
     </row>
     <row r="105">
@@ -2776,10 +2776,10 @@
         <v>7</v>
       </c>
       <c r="B105" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C105" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D105" t="n">
         <v>4</v>
@@ -2788,10 +2788,10 @@
         <v>10</v>
       </c>
       <c r="F105" t="n">
-        <v>50.4935842708568</v>
+        <v>52.0853472032456</v>
       </c>
       <c r="G105" t="n">
-        <v>36.5997314236415</v>
+        <v>31.649616148596</v>
       </c>
     </row>
     <row r="106">
@@ -2799,10 +2799,10 @@
         <v>7</v>
       </c>
       <c r="B106" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C106" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D106" t="n">
         <v>5</v>
@@ -2811,10 +2811,10 @@
         <v>10</v>
       </c>
       <c r="F106" t="n">
-        <v>51.8792993161706</v>
+        <v>52.8826614185952</v>
       </c>
       <c r="G106" t="n">
-        <v>38.4998513518642</v>
+        <v>32.6882903931124</v>
       </c>
     </row>
     <row r="107">
@@ -2822,10 +2822,10 @@
         <v>7</v>
       </c>
       <c r="B107" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C107" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D107" t="n">
         <v>6</v>
@@ -2834,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>49.6820287280381</v>
+        <v>55.5160719178603</v>
       </c>
       <c r="G107" t="n">
-        <v>35.369693207689</v>
+        <v>34.1807116975639</v>
       </c>
     </row>
     <row r="108">
@@ -2845,10 +2845,10 @@
         <v>7</v>
       </c>
       <c r="B108" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C108" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D108" t="n">
         <v>7</v>
@@ -2857,10 +2857,10 @@
         <v>10</v>
       </c>
       <c r="F108" t="n">
-        <v>54.4632401806138</v>
+        <v>53.9662769530546</v>
       </c>
       <c r="G108" t="n">
-        <v>41.232206045265</v>
+        <v>33.4473074430702</v>
       </c>
     </row>
     <row r="109">
@@ -2868,10 +2868,10 @@
         <v>7</v>
       </c>
       <c r="B109" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C109" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D109" t="n">
         <v>8</v>
@@ -2880,10 +2880,10 @@
         <v>10</v>
       </c>
       <c r="F109" t="n">
-        <v>56.7640887186026</v>
+        <v>54.1949561192188</v>
       </c>
       <c r="G109" t="n">
-        <v>40.6584195505289</v>
+        <v>34.4873644274932</v>
       </c>
     </row>
     <row r="110">
@@ -2891,10 +2891,10 @@
         <v>7</v>
       </c>
       <c r="B110" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C110" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D110" t="n">
         <v>9</v>
@@ -2903,10 +2903,10 @@
         <v>10</v>
       </c>
       <c r="F110" t="n">
-        <v>57.9244072560563</v>
+        <v>56.6749656709838</v>
       </c>
       <c r="G110" t="n">
-        <v>42.9599016094805</v>
+        <v>35.78975373809</v>
       </c>
     </row>
     <row r="111">
@@ -2914,10 +2914,10 @@
         <v>7</v>
       </c>
       <c r="B111" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C111" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D111" t="n">
         <v>10</v>
@@ -2926,10 +2926,10 @@
         <v>10</v>
       </c>
       <c r="F111" t="n">
-        <v>56.6348930619158</v>
+        <v>54.9860886556156</v>
       </c>
       <c r="G111" t="n">
-        <v>41.9883016958416</v>
+        <v>35.2683862174099</v>
       </c>
     </row>
     <row r="112">
@@ -2937,10 +2937,10 @@
         <v>7</v>
       </c>
       <c r="B112" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C112" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -2949,10 +2949,10 @@
         <v>11</v>
       </c>
       <c r="F112" t="n">
-        <v>3.86715584296663</v>
+        <v>3.7715755211462</v>
       </c>
       <c r="G112" t="n">
-        <v>3.12669611884466</v>
+        <v>2.9118102909592</v>
       </c>
     </row>
     <row r="113">
@@ -2960,10 +2960,10 @@
         <v>7</v>
       </c>
       <c r="B113" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C113" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D113" t="n">
         <v>2</v>
@@ -2972,10 +2972,10 @@
         <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>4.21418443891739</v>
+        <v>4.30237664858872</v>
       </c>
       <c r="G113" t="n">
-        <v>3.26081461864142</v>
+        <v>2.98908098331761</v>
       </c>
     </row>
     <row r="114">
@@ -2983,10 +2983,10 @@
         <v>7</v>
       </c>
       <c r="B114" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C114" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D114" t="n">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>11</v>
       </c>
       <c r="F114" t="n">
-        <v>4.29414574705358</v>
+        <v>4.19687431392974</v>
       </c>
       <c r="G114" t="n">
-        <v>3.43210733003115</v>
+        <v>2.99993270914519</v>
       </c>
     </row>
     <row r="115">
@@ -3006,10 +3006,10 @@
         <v>7</v>
       </c>
       <c r="B115" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C115" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D115" t="n">
         <v>4</v>
@@ -3018,10 +3018,10 @@
         <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>4.37088279074622</v>
+        <v>4.26944978903011</v>
       </c>
       <c r="G115" t="n">
-        <v>3.55546912166875</v>
+        <v>3.15072131962625</v>
       </c>
     </row>
     <row r="116">
@@ -3029,10 +3029,10 @@
         <v>7</v>
       </c>
       <c r="B116" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C116" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D116" t="n">
         <v>5</v>
@@ -3041,10 +3041,10 @@
         <v>11</v>
       </c>
       <c r="F116" t="n">
-        <v>4.51299215704462</v>
+        <v>4.34355912656414</v>
       </c>
       <c r="G116" t="n">
-        <v>3.52919920910883</v>
+        <v>3.32185983628759</v>
       </c>
     </row>
     <row r="117">
@@ -3052,10 +3052,10 @@
         <v>7</v>
       </c>
       <c r="B117" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C117" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D117" t="n">
         <v>6</v>
@@ -3064,10 +3064,10 @@
         <v>11</v>
       </c>
       <c r="F117" t="n">
-        <v>4.46695799232816</v>
+        <v>4.48057992555716</v>
       </c>
       <c r="G117" t="n">
-        <v>3.53090344162174</v>
+        <v>3.2679685797108</v>
       </c>
     </row>
     <row r="118">
@@ -3075,10 +3075,10 @@
         <v>7</v>
       </c>
       <c r="B118" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C118" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D118" t="n">
         <v>7</v>
@@ -3087,10 +3087,10 @@
         <v>11</v>
       </c>
       <c r="F118" t="n">
-        <v>4.54371798167675</v>
+        <v>4.51982554667318</v>
       </c>
       <c r="G118" t="n">
-        <v>3.55792890791467</v>
+        <v>3.17768432559818</v>
       </c>
     </row>
     <row r="119">
@@ -3098,10 +3098,10 @@
         <v>7</v>
       </c>
       <c r="B119" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C119" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D119" t="n">
         <v>8</v>
@@ -3110,10 +3110,10 @@
         <v>11</v>
       </c>
       <c r="F119" t="n">
-        <v>4.48489973798337</v>
+        <v>4.34502363980456</v>
       </c>
       <c r="G119" t="n">
-        <v>3.58682046389531</v>
+        <v>3.25287668532041</v>
       </c>
     </row>
     <row r="120">
@@ -3121,10 +3121,10 @@
         <v>7</v>
       </c>
       <c r="B120" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C120" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D120" t="n">
         <v>9</v>
@@ -3133,10 +3133,10 @@
         <v>11</v>
       </c>
       <c r="F120" t="n">
-        <v>4.54024231995189</v>
+        <v>4.46075506218565</v>
       </c>
       <c r="G120" t="n">
-        <v>3.45602768510544</v>
+        <v>3.16282372194099</v>
       </c>
     </row>
     <row r="121">
@@ -3144,10 +3144,10 @@
         <v>7</v>
       </c>
       <c r="B121" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C121" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D121" t="n">
         <v>10</v>
@@ -3156,10 +3156,10 @@
         <v>11</v>
       </c>
       <c r="F121" t="n">
-        <v>4.60020987470352</v>
+        <v>4.2804130544725</v>
       </c>
       <c r="G121" t="n">
-        <v>3.52562313053212</v>
+        <v>3.1966164579354</v>
       </c>
     </row>
     <row r="122">
@@ -3167,7 +3167,7 @@
         <v>7</v>
       </c>
       <c r="B122" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C122" t="n">
         <v>70</v>
@@ -3179,10 +3179,10 @@
         <v>8</v>
       </c>
       <c r="F122" t="n">
-        <v>0.945</v>
+        <v>0.944</v>
       </c>
       <c r="G122" t="n">
-        <v>0.966</v>
+        <v>0.9705</v>
       </c>
     </row>
     <row r="123">
@@ -3190,7 +3190,7 @@
         <v>7</v>
       </c>
       <c r="B123" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C123" t="n">
         <v>70</v>
@@ -3202,10 +3202,10 @@
         <v>8</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9275</v>
+        <v>0.934</v>
       </c>
       <c r="G123" t="n">
-        <v>0.957</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="124">
@@ -3213,7 +3213,7 @@
         <v>7</v>
       </c>
       <c r="B124" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C124" t="n">
         <v>70</v>
@@ -3225,10 +3225,10 @@
         <v>8</v>
       </c>
       <c r="F124" t="n">
-        <v>0.928</v>
+        <v>0.9355</v>
       </c>
       <c r="G124" t="n">
-        <v>0.9535</v>
+        <v>0.9595</v>
       </c>
     </row>
     <row r="125">
@@ -3236,7 +3236,7 @@
         <v>7</v>
       </c>
       <c r="B125" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C125" t="n">
         <v>70</v>
@@ -3248,7 +3248,7 @@
         <v>8</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9275</v>
+        <v>0.9355</v>
       </c>
       <c r="G125" t="n">
         <v>0.9555</v>
@@ -3259,7 +3259,7 @@
         <v>7</v>
       </c>
       <c r="B126" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C126" t="n">
         <v>70</v>
@@ -3271,10 +3271,10 @@
         <v>8</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9245</v>
+        <v>0.924</v>
       </c>
       <c r="G126" t="n">
-        <v>0.947</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="127">
@@ -3282,7 +3282,7 @@
         <v>7</v>
       </c>
       <c r="B127" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C127" t="n">
         <v>70</v>
@@ -3294,10 +3294,10 @@
         <v>8</v>
       </c>
       <c r="F127" t="n">
-        <v>0.923</v>
+        <v>0.9285</v>
       </c>
       <c r="G127" t="n">
-        <v>0.95</v>
+        <v>0.9575</v>
       </c>
     </row>
     <row r="128">
@@ -3305,7 +3305,7 @@
         <v>7</v>
       </c>
       <c r="B128" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C128" t="n">
         <v>70</v>
@@ -3317,10 +3317,10 @@
         <v>8</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9315</v>
+        <v>0.9225</v>
       </c>
       <c r="G128" t="n">
-        <v>0.958</v>
+        <v>0.9535</v>
       </c>
     </row>
     <row r="129">
@@ -3328,7 +3328,7 @@
         <v>7</v>
       </c>
       <c r="B129" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C129" t="n">
         <v>70</v>
@@ -3340,10 +3340,10 @@
         <v>8</v>
       </c>
       <c r="F129" t="n">
-        <v>0.93</v>
+        <v>0.9195</v>
       </c>
       <c r="G129" t="n">
-        <v>0.9575</v>
+        <v>0.9535</v>
       </c>
     </row>
     <row r="130">
@@ -3351,7 +3351,7 @@
         <v>7</v>
       </c>
       <c r="B130" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C130" t="n">
         <v>70</v>
@@ -3363,10 +3363,10 @@
         <v>8</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9295</v>
+        <v>0.9285</v>
       </c>
       <c r="G130" t="n">
-        <v>0.9495</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="131">
@@ -3374,7 +3374,7 @@
         <v>7</v>
       </c>
       <c r="B131" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C131" t="n">
         <v>70</v>
@@ -3386,10 +3386,10 @@
         <v>8</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9265</v>
+        <v>0.9315</v>
       </c>
       <c r="G131" t="n">
-        <v>0.951</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="132">
@@ -3397,7 +3397,7 @@
         <v>7</v>
       </c>
       <c r="B132" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C132" t="n">
         <v>70</v>
@@ -3409,10 +3409,10 @@
         <v>9</v>
       </c>
       <c r="F132" t="n">
-        <v>25.8039555623024</v>
+        <v>25.9078675907831</v>
       </c>
       <c r="G132" t="n">
-        <v>24.6370586304737</v>
+        <v>24.2623462885641</v>
       </c>
     </row>
     <row r="133">
@@ -3420,7 +3420,7 @@
         <v>7</v>
       </c>
       <c r="B133" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C133" t="n">
         <v>70</v>
@@ -3432,10 +3432,10 @@
         <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>26.2074336116541</v>
+        <v>25.8647766812629</v>
       </c>
       <c r="G133" t="n">
-        <v>24.9492122448223</v>
+        <v>24.3688855716448</v>
       </c>
     </row>
     <row r="134">
@@ -3443,7 +3443,7 @@
         <v>7</v>
       </c>
       <c r="B134" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C134" t="n">
         <v>70</v>
@@ -3455,10 +3455,10 @@
         <v>9</v>
       </c>
       <c r="F134" t="n">
-        <v>26.3421824656609</v>
+        <v>26.2410125635305</v>
       </c>
       <c r="G134" t="n">
-        <v>25.0106979469275</v>
+        <v>24.7436436372288</v>
       </c>
     </row>
     <row r="135">
@@ -3466,7 +3466,7 @@
         <v>7</v>
       </c>
       <c r="B135" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C135" t="n">
         <v>70</v>
@@ -3478,10 +3478,10 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>26.4603406377967</v>
+        <v>26.220490519355</v>
       </c>
       <c r="G135" t="n">
-        <v>25.1556624497294</v>
+        <v>24.8374613589584</v>
       </c>
     </row>
     <row r="136">
@@ -3489,7 +3489,7 @@
         <v>7</v>
       </c>
       <c r="B136" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C136" t="n">
         <v>70</v>
@@ -3501,10 +3501,10 @@
         <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>26.535735213145</v>
+        <v>26.3002147049236</v>
       </c>
       <c r="G136" t="n">
-        <v>25.3209820958413</v>
+        <v>24.9052421342719</v>
       </c>
     </row>
     <row r="137">
@@ -3512,7 +3512,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C137" t="n">
         <v>70</v>
@@ -3524,10 +3524,10 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>26.2631310507855</v>
+        <v>26.4500584603776</v>
       </c>
       <c r="G137" t="n">
-        <v>25.1136602592383</v>
+        <v>25.0195232620595</v>
       </c>
     </row>
     <row r="138">
@@ -3535,7 +3535,7 @@
         <v>7</v>
       </c>
       <c r="B138" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C138" t="n">
         <v>70</v>
@@ -3547,10 +3547,10 @@
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>26.3796015283367</v>
+        <v>26.0994141035102</v>
       </c>
       <c r="G138" t="n">
-        <v>25.3035624002716</v>
+        <v>24.8986733276536</v>
       </c>
     </row>
     <row r="139">
@@ -3558,7 +3558,7 @@
         <v>7</v>
       </c>
       <c r="B139" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C139" t="n">
         <v>70</v>
@@ -3570,10 +3570,10 @@
         <v>9</v>
       </c>
       <c r="F139" t="n">
-        <v>26.4140502506195</v>
+        <v>26.4265430647595</v>
       </c>
       <c r="G139" t="n">
-        <v>25.4196621000629</v>
+        <v>24.9372732728998</v>
       </c>
     </row>
     <row r="140">
@@ -3581,7 +3581,7 @@
         <v>7</v>
       </c>
       <c r="B140" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C140" t="n">
         <v>70</v>
@@ -3593,10 +3593,10 @@
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>26.6415803625048</v>
+        <v>26.504909715843</v>
       </c>
       <c r="G140" t="n">
-        <v>25.5510996371562</v>
+        <v>25.1604753279206</v>
       </c>
     </row>
     <row r="141">
@@ -3604,7 +3604,7 @@
         <v>7</v>
       </c>
       <c r="B141" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C141" t="n">
         <v>70</v>
@@ -3616,10 +3616,10 @@
         <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>26.4502593997523</v>
+        <v>26.6261841835227</v>
       </c>
       <c r="G141" t="n">
-        <v>25.3222543327919</v>
+        <v>25.1770396614907</v>
       </c>
     </row>
     <row r="142">
@@ -3627,7 +3627,7 @@
         <v>7</v>
       </c>
       <c r="B142" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C142" t="n">
         <v>70</v>
@@ -3639,10 +3639,10 @@
         <v>10</v>
       </c>
       <c r="F142" t="n">
-        <v>38.070793301551</v>
+        <v>39.0096584275337</v>
       </c>
       <c r="G142" t="n">
-        <v>22.4439037744579</v>
+        <v>21.0013473718499</v>
       </c>
     </row>
     <row r="143">
@@ -3650,7 +3650,7 @@
         <v>7</v>
       </c>
       <c r="B143" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C143" t="n">
         <v>70</v>
@@ -3662,10 +3662,10 @@
         <v>10</v>
       </c>
       <c r="F143" t="n">
-        <v>43.2926997594853</v>
+        <v>41.1923269205567</v>
       </c>
       <c r="G143" t="n">
-        <v>25.9194454142281</v>
+        <v>22.8639267459862</v>
       </c>
     </row>
     <row r="144">
@@ -3673,7 +3673,7 @@
         <v>7</v>
       </c>
       <c r="B144" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C144" t="n">
         <v>70</v>
@@ -3685,10 +3685,10 @@
         <v>10</v>
       </c>
       <c r="F144" t="n">
-        <v>42.9662127989187</v>
+        <v>42.236898543972</v>
       </c>
       <c r="G144" t="n">
-        <v>25.4219528889029</v>
+        <v>24.1931718407558</v>
       </c>
     </row>
     <row r="145">
@@ -3696,7 +3696,7 @@
         <v>7</v>
       </c>
       <c r="B145" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C145" t="n">
         <v>70</v>
@@ -3708,10 +3708,10 @@
         <v>10</v>
       </c>
       <c r="F145" t="n">
-        <v>44.8031257984196</v>
+        <v>43.3947984311098</v>
       </c>
       <c r="G145" t="n">
-        <v>26.1273106860599</v>
+        <v>25.2673824490713</v>
       </c>
     </row>
     <row r="146">
@@ -3719,7 +3719,7 @@
         <v>7</v>
       </c>
       <c r="B146" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C146" t="n">
         <v>70</v>
@@ -3731,10 +3731,10 @@
         <v>10</v>
       </c>
       <c r="F146" t="n">
-        <v>47.9954084879218</v>
+        <v>46.1380697478926</v>
       </c>
       <c r="G146" t="n">
-        <v>28.9268135994757</v>
+        <v>26.3755649871157</v>
       </c>
     </row>
     <row r="147">
@@ -3742,7 +3742,7 @@
         <v>7</v>
       </c>
       <c r="B147" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C147" t="n">
         <v>70</v>
@@ -3754,10 +3754,10 @@
         <v>10</v>
       </c>
       <c r="F147" t="n">
-        <v>46.6345275859887</v>
+        <v>45.5807796953398</v>
       </c>
       <c r="G147" t="n">
-        <v>28.4701005993394</v>
+        <v>24.9453529900746</v>
       </c>
     </row>
     <row r="148">
@@ -3765,7 +3765,7 @@
         <v>7</v>
       </c>
       <c r="B148" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C148" t="n">
         <v>70</v>
@@ -3777,10 +3777,10 @@
         <v>10</v>
       </c>
       <c r="F148" t="n">
-        <v>47.5799920115717</v>
+        <v>47.3215044956137</v>
       </c>
       <c r="G148" t="n">
-        <v>28.4581797296734</v>
+        <v>26.3839511226212</v>
       </c>
     </row>
     <row r="149">
@@ -3788,7 +3788,7 @@
         <v>7</v>
       </c>
       <c r="B149" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C149" t="n">
         <v>70</v>
@@ -3800,10 +3800,10 @@
         <v>10</v>
       </c>
       <c r="F149" t="n">
-        <v>47.7571824981283</v>
+        <v>48.0445751208969</v>
       </c>
       <c r="G149" t="n">
-        <v>27.9116094851172</v>
+        <v>27.0573360023596</v>
       </c>
     </row>
     <row r="150">
@@ -3811,7 +3811,7 @@
         <v>7</v>
       </c>
       <c r="B150" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C150" t="n">
         <v>70</v>
@@ -3823,10 +3823,10 @@
         <v>10</v>
       </c>
       <c r="F150" t="n">
-        <v>51.343826907522</v>
+        <v>45.7881820847677</v>
       </c>
       <c r="G150" t="n">
-        <v>30.1881661132112</v>
+        <v>26.0960378266926</v>
       </c>
     </row>
     <row r="151">
@@ -3834,7 +3834,7 @@
         <v>7</v>
       </c>
       <c r="B151" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C151" t="n">
         <v>70</v>
@@ -3846,10 +3846,10 @@
         <v>10</v>
       </c>
       <c r="F151" t="n">
-        <v>45.9957053151082</v>
+        <v>48.1402686502337</v>
       </c>
       <c r="G151" t="n">
-        <v>27.6637102497016</v>
+        <v>27.4024043347831</v>
       </c>
     </row>
     <row r="152">
@@ -3857,7 +3857,7 @@
         <v>7</v>
       </c>
       <c r="B152" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C152" t="n">
         <v>70</v>
@@ -3869,10 +3869,10 @@
         <v>11</v>
       </c>
       <c r="F152" t="n">
-        <v>4.00995719334313</v>
+        <v>4.09802496123122</v>
       </c>
       <c r="G152" t="n">
-        <v>2.72160400140212</v>
+        <v>2.80017281354939</v>
       </c>
     </row>
     <row r="153">
@@ -3880,7 +3880,7 @@
         <v>7</v>
       </c>
       <c r="B153" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C153" t="n">
         <v>70</v>
@@ -3892,10 +3892,10 @@
         <v>11</v>
       </c>
       <c r="F153" t="n">
-        <v>4.36157698451277</v>
+        <v>4.18966073192586</v>
       </c>
       <c r="G153" t="n">
-        <v>2.88223135570502</v>
+        <v>2.76995961782953</v>
       </c>
     </row>
     <row r="154">
@@ -3903,7 +3903,7 @@
         <v>7</v>
       </c>
       <c r="B154" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C154" t="n">
         <v>70</v>
@@ -3915,10 +3915,10 @@
         <v>11</v>
       </c>
       <c r="F154" t="n">
-        <v>4.27926580673587</v>
+        <v>4.22725834991528</v>
       </c>
       <c r="G154" t="n">
-        <v>2.91862855877783</v>
+        <v>2.80845521003622</v>
       </c>
     </row>
     <row r="155">
@@ -3926,7 +3926,7 @@
         <v>7</v>
       </c>
       <c r="B155" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C155" t="n">
         <v>70</v>
@@ -3938,10 +3938,10 @@
         <v>11</v>
       </c>
       <c r="F155" t="n">
-        <v>4.10039869481232</v>
+        <v>4.08817256903461</v>
       </c>
       <c r="G155" t="n">
-        <v>2.81019762036879</v>
+        <v>2.81109261788762</v>
       </c>
     </row>
     <row r="156">
@@ -3949,7 +3949,7 @@
         <v>7</v>
       </c>
       <c r="B156" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C156" t="n">
         <v>70</v>
@@ -3961,10 +3961,10 @@
         <v>11</v>
       </c>
       <c r="F156" t="n">
-        <v>4.16856308420806</v>
+        <v>4.31230500899875</v>
       </c>
       <c r="G156" t="n">
-        <v>2.86581977438287</v>
+        <v>3.00996156820034</v>
       </c>
     </row>
     <row r="157">
@@ -3972,7 +3972,7 @@
         <v>7</v>
       </c>
       <c r="B157" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C157" t="n">
         <v>70</v>
@@ -3984,10 +3984,10 @@
         <v>11</v>
       </c>
       <c r="F157" t="n">
-        <v>4.29742509454881</v>
+        <v>4.32592365997864</v>
       </c>
       <c r="G157" t="n">
-        <v>2.97768640191985</v>
+        <v>2.79182145737836</v>
       </c>
     </row>
     <row r="158">
@@ -3995,7 +3995,7 @@
         <v>7</v>
       </c>
       <c r="B158" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C158" t="n">
         <v>70</v>
@@ -4007,10 +4007,10 @@
         <v>11</v>
       </c>
       <c r="F158" t="n">
-        <v>4.21145184324246</v>
+        <v>4.32027994726774</v>
       </c>
       <c r="G158" t="n">
-        <v>2.89941695067987</v>
+        <v>2.88736454081823</v>
       </c>
     </row>
     <row r="159">
@@ -4018,7 +4018,7 @@
         <v>7</v>
       </c>
       <c r="B159" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C159" t="n">
         <v>70</v>
@@ -4030,10 +4030,10 @@
         <v>11</v>
       </c>
       <c r="F159" t="n">
-        <v>4.34961524639797</v>
+        <v>4.49894384249318</v>
       </c>
       <c r="G159" t="n">
-        <v>2.88920510251873</v>
+        <v>2.97233892882441</v>
       </c>
     </row>
     <row r="160">
@@ -4041,7 +4041,7 @@
         <v>7</v>
       </c>
       <c r="B160" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C160" t="n">
         <v>70</v>
@@ -4053,10 +4053,10 @@
         <v>11</v>
       </c>
       <c r="F160" t="n">
-        <v>4.22245166495901</v>
+        <v>4.28441243917413</v>
       </c>
       <c r="G160" t="n">
-        <v>3.00326521458389</v>
+        <v>2.8268515631881</v>
       </c>
     </row>
     <row r="161">
@@ -4064,7 +4064,7 @@
         <v>7</v>
       </c>
       <c r="B161" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C161" t="n">
         <v>70</v>
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="F161" t="n">
-        <v>4.32612818624829</v>
+        <v>4.39355057524411</v>
       </c>
       <c r="G161" t="n">
-        <v>2.95363768969191</v>
+        <v>2.79470092939005</v>
       </c>
     </row>
   </sheetData>
